--- a/詳細設計/言語リソース/クーポン君_言語リソースファイル.xlsx
+++ b/詳細設計/言語リソース/クーポン君_言語リソースファイル.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itcc-admin\Desktop\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chita/Documents/Workspace/3.project/3.japan_dianping/deploy_guide/20241107納品物/設計書/言語リソース/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AD0955-082C-4EE1-B796-72D03A618A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393A5623-0AA5-EF42-A359-8CF22D9490E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP-中日単語対照管理表" sheetId="2" r:id="rId1"/>
@@ -20,19 +20,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'APP-中日単語対照管理表'!$A$1:$E$193</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'統合経営管理-中日単語対照管理表'!$A$1:$E$280</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -18247,72 +18236,14 @@
     </r>
   </si>
   <si>
-    <t>パスワードが変更されました、ログインに進めてください</t>
-    <rPh sb="6" eb="8">
-      <t>ﾍﾝｺｳ</t>
-    </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>取込済有効期限切れ</t>
-    <rPh sb="3" eb="5">
-      <t>ﾕｳｺｳ</t>
-    </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>会計金額◯◯◯◯◯から</t>
-    <rPh sb="0" eb="2">
-      <t>ｶｲｹｲ</t>
-    </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>店舗紹介</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>全ての口コミ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>パスワードを忘れた場合</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>パスワード変更</t>
-    <rPh sb="5" eb="7">
-      <t>ﾍﾝｺｳ</t>
-    </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>受取待ち</t>
-    <rPh sb="0" eb="2">
-      <t>ｳｹﾄﾘ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ﾏ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>シェア</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>確認パスワード※</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>アカウントがまだ登録していません</t>
     <rPh sb="8" eb="10">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>確認パスワード※</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -18326,6 +18257,10 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ブックマークリストから削除されました</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -18336,6 +18271,60 @@
   <si>
     <t>店舗クーポンが取得されていません、店舗詳細ページに遷移して取得してください。</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>シェア</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受取待ち</t>
+    <rPh sb="0" eb="2">
+      <t>ｳｹﾄﾘ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ﾏ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全ての口コミ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>パスワードを忘れた場合</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>パスワード変更</t>
+    <rPh sb="5" eb="7">
+      <t>ﾍﾝｺｳ</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>取込済有効期限切れ</t>
+    <rPh sb="3" eb="5">
+      <t>ﾕｳｺｳ</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>店舗紹介</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>会計金額◯◯◯◯◯から</t>
+    <rPh sb="0" eb="2">
+      <t>ｶｲｹｲ</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>パスワードが変更されました、ログインに進めてください</t>
+    <rPh sb="6" eb="8">
+      <t>ﾍﾝｺｳ</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>利用条件額</t>
@@ -18494,7 +18483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -18522,19 +18511,16 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -18795,18 +18781,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81B947B-D020-C147-956A-5E81F6BD60B3}">
   <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A118" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="52.453125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.6328125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.81640625" style="2"/>
+    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -18826,7 +18810,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.45" customHeight="1">
+    <row r="2" spans="1:5" ht="15.5" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -18836,14 +18820,14 @@
       <c r="C2" s="4" t="s">
         <v>1206</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="19">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -18853,14 +18837,14 @@
       <c r="C3" s="4" t="s">
         <v>1207</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>146</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="19">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -18870,14 +18854,14 @@
       <c r="C4" s="4" t="s">
         <v>1208</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="19">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -18887,14 +18871,14 @@
       <c r="C5" s="4" t="s">
         <v>1209</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="19">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -18904,14 +18888,14 @@
       <c r="C6" s="4" t="s">
         <v>1210</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="19">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -18921,14 +18905,14 @@
       <c r="C7" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="4" t="s">
         <v>147</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="19">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -18938,14 +18922,14 @@
       <c r="C8" s="4" t="s">
         <v>1212</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="4" t="s">
         <v>148</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="19">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -18955,14 +18939,14 @@
       <c r="C9" s="4" t="s">
         <v>1213</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="19">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -18972,14 +18956,14 @@
       <c r="C10" s="4" t="s">
         <v>1214</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="4" t="s">
         <v>149</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="19">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -18989,14 +18973,14 @@
       <c r="C11" s="4" t="s">
         <v>1215</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="4" t="s">
         <v>150</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="19">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -19006,14 +18990,14 @@
       <c r="C12" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="4" t="s">
         <v>151</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="19">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -19023,14 +19007,14 @@
       <c r="C13" s="4" t="s">
         <v>1217</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="4" t="s">
         <v>152</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="19">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -19040,14 +19024,14 @@
       <c r="C14" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="19">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -19057,14 +19041,14 @@
       <c r="C15" s="4" t="s">
         <v>1219</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="4" t="s">
         <v>154</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="19">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -19074,14 +19058,14 @@
       <c r="C16" s="4" t="s">
         <v>1220</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="4" t="s">
         <v>1184</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="19">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -19091,14 +19075,14 @@
       <c r="C17" s="4" t="s">
         <v>1221</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="19">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -19108,14 +19092,14 @@
       <c r="C18" s="4" t="s">
         <v>1222</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="4" t="s">
         <v>156</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="38">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -19125,14 +19109,14 @@
       <c r="C19" s="4" t="s">
         <v>1223</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="4" t="s">
         <v>157</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="19">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -19142,14 +19126,14 @@
       <c r="C20" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32.4">
+    <row r="21" spans="1:5" ht="38">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -19159,14 +19143,14 @@
       <c r="C21" s="4" t="s">
         <v>1225</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="4" t="s">
         <v>159</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="19">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -19176,14 +19160,14 @@
       <c r="C22" s="4" t="s">
         <v>1226</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="4" t="s">
         <v>160</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="19">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -19193,14 +19177,14 @@
       <c r="C23" s="4" t="s">
         <v>1227</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="19">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -19210,14 +19194,14 @@
       <c r="C24" s="4" t="s">
         <v>1228</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="4" t="s">
         <v>162</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="19">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -19227,14 +19211,14 @@
       <c r="C25" s="4" t="s">
         <v>1229</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="4" t="s">
         <v>163</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="19">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -19244,14 +19228,14 @@
       <c r="C26" s="4" t="s">
         <v>1230</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="19">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -19261,14 +19245,14 @@
       <c r="C27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="4" t="s">
         <v>1185</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="19">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -19278,14 +19262,14 @@
       <c r="C28" s="4" t="s">
         <v>1231</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="4" t="s">
         <v>1186</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="19">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -19295,14 +19279,14 @@
       <c r="C29" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="4" t="s">
         <v>1187</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="19">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -19312,14 +19296,14 @@
       <c r="C30" s="4" t="s">
         <v>1233</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="4" t="s">
         <v>165</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="19">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -19329,14 +19313,14 @@
       <c r="C31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="19">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -19346,14 +19330,14 @@
       <c r="C32" s="4" t="s">
         <v>1234</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="4" t="s">
         <v>167</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="19">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -19363,14 +19347,14 @@
       <c r="C33" s="4" t="s">
         <v>1235</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="4" t="s">
         <v>168</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="19">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -19380,14 +19364,14 @@
       <c r="C34" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="4" t="s">
         <v>169</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="19">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -19397,14 +19381,14 @@
       <c r="C35" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="4" t="s">
         <v>170</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="19">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -19414,14 +19398,14 @@
       <c r="C36" s="4" t="s">
         <v>1237</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="4" t="s">
         <v>171</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="19">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -19431,14 +19415,14 @@
       <c r="C37" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="4" t="s">
         <v>172</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="19">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -19448,14 +19432,14 @@
       <c r="C38" s="4" t="s">
         <v>1238</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="4" t="s">
         <v>173</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="19">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -19465,14 +19449,14 @@
       <c r="C39" s="4" t="s">
         <v>1239</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="4" t="s">
         <v>174</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="19">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -19482,14 +19466,14 @@
       <c r="C40" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="19">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -19499,14 +19483,14 @@
       <c r="C41" s="4" t="s">
         <v>1240</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="19">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -19516,14 +19500,14 @@
       <c r="C42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="4" t="s">
         <v>175</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="19">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -19533,14 +19517,14 @@
       <c r="C43" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="19">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -19550,14 +19534,14 @@
       <c r="C44" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="19">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -19567,14 +19551,14 @@
       <c r="C45" s="4" t="s">
         <v>1241</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="4" t="s">
         <v>178</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="19">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -19584,14 +19568,14 @@
       <c r="C46" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="4" t="s">
         <v>151</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="19">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -19601,14 +19585,14 @@
       <c r="C47" s="4" t="s">
         <v>1242</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="4" t="s">
         <v>179</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="19">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -19618,14 +19602,14 @@
       <c r="C48" s="4" t="s">
         <v>1243</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="19">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -19635,14 +19619,14 @@
       <c r="C49" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" ht="19">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -19652,14 +19636,14 @@
       <c r="C50" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="4" t="s">
         <v>169</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="19">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -19669,14 +19653,14 @@
       <c r="C51" s="4" t="s">
         <v>1244</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="4" t="s">
         <v>182</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" ht="19">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -19686,14 +19670,14 @@
       <c r="C52" s="4" t="s">
         <v>1245</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="4" t="s">
         <v>183</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="19">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -19703,14 +19687,14 @@
       <c r="C53" s="4" t="s">
         <v>1246</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>1566</v>
+      <c r="D53" s="8" t="s">
+        <v>1555</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="19">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -19720,14 +19704,14 @@
       <c r="C54" s="4" t="s">
         <v>1247</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="4" t="s">
         <v>184</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="19">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -19737,14 +19721,14 @@
       <c r="C55" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="4" t="s">
         <v>185</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="19">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -19754,14 +19738,14 @@
       <c r="C56" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="4" t="s">
         <v>1188</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="19">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -19771,14 +19755,14 @@
       <c r="C57" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>1565</v>
+      <c r="D57" s="8" t="s">
+        <v>1556</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" ht="19">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -19788,14 +19772,14 @@
       <c r="C58" s="4" t="s">
         <v>1251</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" ht="19">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -19805,14 +19789,14 @@
       <c r="C59" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="4" t="s">
         <v>187</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" ht="19">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -19822,14 +19806,14 @@
       <c r="C60" s="4" t="s">
         <v>1253</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="4" t="s">
         <v>188</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="32.4">
+    <row r="61" spans="1:5" ht="38">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -19839,14 +19823,14 @@
       <c r="C61" s="4" t="s">
         <v>1254</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="4" t="s">
         <v>189</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="19">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -19856,14 +19840,14 @@
       <c r="C62" s="4" t="s">
         <v>1255</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="4" t="s">
         <v>190</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="19">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -19873,14 +19857,14 @@
       <c r="C63" s="4" t="s">
         <v>1256</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="4" t="s">
         <v>191</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="19">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -19890,14 +19874,14 @@
       <c r="C64" s="4" t="s">
         <v>1257</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="4" t="s">
         <v>404</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="19">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -19907,14 +19891,14 @@
       <c r="C65" s="4" t="s">
         <v>1258</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="4" t="s">
         <v>192</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" ht="38">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -19924,14 +19908,14 @@
       <c r="C66" s="4" t="s">
         <v>1259</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="4" t="s">
         <v>1180</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" ht="19">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -19941,14 +19925,14 @@
       <c r="C67" s="4" t="s">
         <v>1260</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="4" t="s">
         <v>221</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" ht="19">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -19958,14 +19942,14 @@
       <c r="C68" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="4" t="s">
         <v>193</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="19">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -19975,14 +19959,14 @@
       <c r="C69" s="4" t="s">
         <v>1261</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="4" t="s">
         <v>342</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" ht="19">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -19992,14 +19976,14 @@
       <c r="C70" s="4" t="s">
         <v>1262</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" ht="19">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -20009,14 +19993,14 @@
       <c r="C71" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="19">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -20026,14 +20010,14 @@
       <c r="C72" s="4" t="s">
         <v>1263</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="4" t="s">
         <v>194</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" ht="19">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -20043,14 +20027,14 @@
       <c r="C73" s="4" t="s">
         <v>1264</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" ht="19">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -20060,14 +20044,14 @@
       <c r="C74" s="4" t="s">
         <v>1265</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" ht="19">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -20077,14 +20061,14 @@
       <c r="C75" s="4" t="s">
         <v>1266</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" ht="19">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -20094,14 +20078,14 @@
       <c r="C76" s="4" t="s">
         <v>1267</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" ht="19">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -20111,14 +20095,14 @@
       <c r="C77" s="4" t="s">
         <v>1268</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="4" t="s">
         <v>199</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="19">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -20128,14 +20112,14 @@
       <c r="C78" s="4" t="s">
         <v>1269</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="4" t="s">
         <v>200</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" ht="19">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -20145,14 +20129,14 @@
       <c r="C79" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="4" t="s">
         <v>201</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" ht="19">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -20162,14 +20146,14 @@
       <c r="C80" s="4" t="s">
         <v>1271</v>
       </c>
-      <c r="D80" s="10" t="s">
-        <v>1567</v>
+      <c r="D80" s="9" t="s">
+        <v>1557</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" ht="19">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -20179,14 +20163,14 @@
       <c r="C81" s="4" t="s">
         <v>1272</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="4" t="s">
         <v>202</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" ht="19">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -20196,14 +20180,14 @@
       <c r="C82" s="4" t="s">
         <v>1273</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" ht="19">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -20213,14 +20197,14 @@
       <c r="C83" s="4" t="s">
         <v>1274</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="4" t="s">
         <v>204</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" ht="19">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -20230,14 +20214,14 @@
       <c r="C84" s="4" t="s">
         <v>1275</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="19">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -20247,14 +20231,14 @@
       <c r="C85" s="4" t="s">
         <v>1276</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="4" t="s">
         <v>206</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" ht="19">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -20264,14 +20248,14 @@
       <c r="C86" s="4" t="s">
         <v>1277</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="4" t="s">
         <v>207</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" ht="19">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -20281,14 +20265,14 @@
       <c r="C87" s="4" t="s">
         <v>1278</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>1562</v>
+      <c r="D87" s="8" t="s">
+        <v>1558</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" ht="19">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -20298,14 +20282,14 @@
       <c r="C88" s="4" t="s">
         <v>1279</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="4" t="s">
         <v>208</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" ht="19">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -20315,14 +20299,14 @@
       <c r="C89" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="4" t="s">
         <v>209</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" ht="19">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -20332,14 +20316,14 @@
       <c r="C90" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="4" t="s">
         <v>212</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" ht="19">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -20349,14 +20333,14 @@
       <c r="C91" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" ht="19">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -20366,14 +20350,14 @@
       <c r="C92" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="4" t="s">
         <v>210</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" ht="19">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -20383,14 +20367,14 @@
       <c r="C93" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" ht="19">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -20400,14 +20384,14 @@
       <c r="C94" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="4" t="s">
         <v>213</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" ht="19">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -20417,14 +20401,14 @@
       <c r="C95" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="4" t="s">
         <v>214</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" ht="19">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -20434,14 +20418,14 @@
       <c r="C96" s="4" t="s">
         <v>1281</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="4" t="s">
         <v>216</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="19">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -20451,14 +20435,14 @@
       <c r="C97" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="4" t="s">
         <v>145</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" ht="19">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -20468,14 +20452,14 @@
       <c r="C98" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="4" t="s">
         <v>144</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" ht="19">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -20485,14 +20469,14 @@
       <c r="C99" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D99" s="10" t="s">
-        <v>1568</v>
+      <c r="D99" s="9" t="s">
+        <v>1559</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="32.4">
+    <row r="100" spans="1:5" ht="38">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -20502,14 +20486,14 @@
       <c r="C100" s="4" t="s">
         <v>1282</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="4" t="s">
         <v>1178</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="32.4">
+    <row r="101" spans="1:5" ht="38">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -20519,14 +20503,14 @@
       <c r="C101" s="4" t="s">
         <v>1283</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="4" t="s">
         <v>1179</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" ht="19">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -20536,14 +20520,14 @@
       <c r="C102" s="4" t="s">
         <v>1284</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="4" t="s">
         <v>225</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" ht="19">
       <c r="A103" s="3" t="s">
         <v>226</v>
       </c>
@@ -20553,14 +20537,14 @@
       <c r="C103" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="4" t="s">
         <v>229</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="19">
       <c r="A104" s="3" t="s">
         <v>230</v>
       </c>
@@ -20570,14 +20554,14 @@
       <c r="C104" s="4" t="s">
         <v>1285</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="4" t="s">
         <v>241</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" ht="19">
       <c r="A105" s="3" t="s">
         <v>232</v>
       </c>
@@ -20587,14 +20571,14 @@
       <c r="C105" s="4" t="s">
         <v>1286</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="4" t="s">
         <v>242</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="31.2">
+    <row r="106" spans="1:5" ht="34">
       <c r="A106" s="3" t="s">
         <v>234</v>
       </c>
@@ -20604,14 +20588,14 @@
       <c r="C106" s="4" t="s">
         <v>1287</v>
       </c>
-      <c r="D106" s="10" t="s">
-        <v>1569</v>
+      <c r="D106" s="9" t="s">
+        <v>1560</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="31.2">
+    <row r="107" spans="1:5" ht="36">
       <c r="A107" s="3" t="s">
         <v>236</v>
       </c>
@@ -20621,14 +20605,14 @@
       <c r="C107" s="4" t="s">
         <v>1288</v>
       </c>
-      <c r="D107" s="10" t="s">
-        <v>1570</v>
+      <c r="D107" s="9" t="s">
+        <v>1561</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" ht="19">
       <c r="A108" s="3" t="s">
         <v>238</v>
       </c>
@@ -20638,14 +20622,14 @@
       <c r="C108" s="4" t="s">
         <v>1289</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="4" t="s">
         <v>243</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" ht="19">
       <c r="A109" s="3" t="s">
         <v>244</v>
       </c>
@@ -20655,14 +20639,14 @@
       <c r="C109" s="4" t="s">
         <v>1290</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="4" t="s">
         <v>246</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" ht="19">
       <c r="A110" s="3" t="s">
         <v>247</v>
       </c>
@@ -20672,14 +20656,14 @@
       <c r="C110" s="4" t="s">
         <v>1291</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="4" t="s">
         <v>252</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" ht="19">
       <c r="A111" s="3" t="s">
         <v>249</v>
       </c>
@@ -20689,14 +20673,14 @@
       <c r="C111" s="4" t="s">
         <v>1292</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="4" t="s">
         <v>291</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" ht="19">
       <c r="A112" s="3" t="s">
         <v>253</v>
       </c>
@@ -20706,14 +20690,14 @@
       <c r="C112" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="4" t="s">
         <v>255</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" ht="19">
       <c r="A113" s="3" t="s">
         <v>256</v>
       </c>
@@ -20723,14 +20707,14 @@
       <c r="C113" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="4" t="s">
         <v>263</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" ht="19">
       <c r="A114" s="3" t="s">
         <v>258</v>
       </c>
@@ -20740,14 +20724,14 @@
       <c r="C114" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="4" t="s">
         <v>264</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" ht="19">
       <c r="A115" s="3" t="s">
         <v>260</v>
       </c>
@@ -20757,14 +20741,14 @@
       <c r="C115" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="4" t="s">
         <v>265</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" ht="19">
       <c r="A116" s="3" t="s">
         <v>266</v>
       </c>
@@ -20774,14 +20758,14 @@
       <c r="C116" s="4" t="s">
         <v>1294</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="4" t="s">
         <v>268</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="19">
       <c r="A117" s="3" t="s">
         <v>269</v>
       </c>
@@ -20791,14 +20775,14 @@
       <c r="C117" s="4" t="s">
         <v>1295</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="4" t="s">
         <v>279</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" ht="19">
       <c r="A118" s="3" t="s">
         <v>271</v>
       </c>
@@ -20808,14 +20792,14 @@
       <c r="C118" s="4" t="s">
         <v>1251</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" ht="19">
       <c r="A119" s="3" t="s">
         <v>273</v>
       </c>
@@ -20825,14 +20809,14 @@
       <c r="C119" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="4" t="s">
         <v>281</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" ht="19">
       <c r="A120" s="3" t="s">
         <v>275</v>
       </c>
@@ -20842,14 +20826,14 @@
       <c r="C120" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="4" t="s">
         <v>283</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" ht="19">
       <c r="A121" s="3" t="s">
         <v>277</v>
       </c>
@@ -20859,14 +20843,14 @@
       <c r="C121" s="4" t="s">
         <v>1297</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="4" t="s">
         <v>282</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" ht="19">
       <c r="A122" s="3" t="s">
         <v>284</v>
       </c>
@@ -20876,14 +20860,14 @@
       <c r="C122" s="4" t="s">
         <v>1298</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="4" t="s">
         <v>293</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" ht="19">
       <c r="A123" s="3" t="s">
         <v>286</v>
       </c>
@@ -20893,14 +20877,14 @@
       <c r="C123" s="4" t="s">
         <v>1299</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="4" t="s">
         <v>290</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" ht="19">
       <c r="A124" s="3" t="s">
         <v>288</v>
       </c>
@@ -20910,14 +20894,14 @@
       <c r="C124" s="4" t="s">
         <v>1300</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="4" t="s">
         <v>292</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" ht="19">
       <c r="A125" s="3" t="s">
         <v>294</v>
       </c>
@@ -20927,14 +20911,14 @@
       <c r="C125" s="4" t="s">
         <v>1301</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="4" t="s">
         <v>307</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" ht="19">
       <c r="A126" s="3" t="s">
         <v>296</v>
       </c>
@@ -20944,14 +20928,14 @@
       <c r="C126" s="4" t="s">
         <v>1302</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="4" t="s">
         <v>308</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" ht="19">
       <c r="A127" s="3" t="s">
         <v>298</v>
       </c>
@@ -20961,14 +20945,14 @@
       <c r="C127" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="4" t="s">
         <v>309</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" ht="19">
       <c r="A128" s="3" t="s">
         <v>300</v>
       </c>
@@ -20978,14 +20962,14 @@
       <c r="C128" s="4" t="s">
         <v>1304</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="4" t="s">
         <v>310</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" ht="19">
       <c r="A129" s="3" t="s">
         <v>302</v>
       </c>
@@ -20995,14 +20979,14 @@
       <c r="C129" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D129" s="9" t="s">
-        <v>1564</v>
+      <c r="D129" s="8" t="s">
+        <v>1562</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" ht="19">
       <c r="A130" s="3" t="s">
         <v>304</v>
       </c>
@@ -21012,14 +20996,14 @@
       <c r="C130" s="4" t="s">
         <v>1305</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D130" s="4" t="s">
         <v>1162</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" ht="19">
       <c r="A131" s="3" t="s">
         <v>313</v>
       </c>
@@ -21029,14 +21013,14 @@
       <c r="C131" s="4" t="s">
         <v>1306</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D131" s="4" t="s">
         <v>317</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="32.4">
+    <row r="132" spans="1:5" ht="38">
       <c r="A132" s="3" t="s">
         <v>315</v>
       </c>
@@ -21046,14 +21030,14 @@
       <c r="C132" s="4" t="s">
         <v>1307</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="4" t="s">
         <v>318</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" ht="19">
       <c r="A133" s="3" t="s">
         <v>319</v>
       </c>
@@ -21063,14 +21047,14 @@
       <c r="C133" s="4" t="s">
         <v>1308</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="4" t="s">
         <v>321</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" ht="19">
       <c r="A134" s="3" t="s">
         <v>322</v>
       </c>
@@ -21080,14 +21064,14 @@
       <c r="C134" s="4" t="s">
         <v>1309</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="8" t="s">
         <v>1563</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" ht="19">
       <c r="A135" s="3" t="s">
         <v>323</v>
       </c>
@@ -21097,14 +21081,14 @@
       <c r="C135" s="4" t="s">
         <v>1310</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="4" t="s">
         <v>336</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" ht="19">
       <c r="A136" s="3" t="s">
         <v>324</v>
       </c>
@@ -21114,14 +21098,14 @@
       <c r="C136" s="4" t="s">
         <v>1311</v>
       </c>
-      <c r="D136" s="9" t="s">
-        <v>1559</v>
+      <c r="D136" s="8" t="s">
+        <v>1564</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" ht="19">
       <c r="A137" s="3" t="s">
         <v>328</v>
       </c>
@@ -21131,14 +21115,14 @@
       <c r="C137" s="4" t="s">
         <v>1312</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="4" t="s">
         <v>329</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" ht="19">
       <c r="A138" s="3" t="s">
         <v>331</v>
       </c>
@@ -21148,14 +21132,14 @@
       <c r="C138" s="4" t="s">
         <v>1313</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="4" t="s">
         <v>335</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" ht="38">
       <c r="A139" s="3" t="s">
         <v>337</v>
       </c>
@@ -21165,14 +21149,14 @@
       <c r="C139" s="4" t="s">
         <v>1314</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="4" t="s">
         <v>333</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" ht="19">
       <c r="A140" s="3" t="s">
         <v>338</v>
       </c>
@@ -21182,14 +21166,14 @@
       <c r="C140" s="4" t="s">
         <v>1315</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="4" t="s">
         <v>340</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" ht="19">
       <c r="A141" s="3" t="s">
         <v>343</v>
       </c>
@@ -21199,14 +21183,14 @@
       <c r="C141" s="4" t="s">
         <v>1316</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="4" t="s">
         <v>353</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" ht="19">
       <c r="A142" s="3" t="s">
         <v>344</v>
       </c>
@@ -21216,14 +21200,14 @@
       <c r="C142" s="4" t="s">
         <v>1317</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="D142" s="4" t="s">
         <v>354</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" ht="19">
       <c r="A143" s="3" t="s">
         <v>345</v>
       </c>
@@ -21233,14 +21217,14 @@
       <c r="C143" s="4" t="s">
         <v>1318</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="4" t="s">
         <v>1318</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" ht="19">
       <c r="A144" s="3" t="s">
         <v>346</v>
       </c>
@@ -21250,14 +21234,14 @@
       <c r="C144" s="4" t="s">
         <v>1319</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D144" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" ht="19">
       <c r="A145" s="3" t="s">
         <v>347</v>
       </c>
@@ -21267,14 +21251,14 @@
       <c r="C145" s="4" t="s">
         <v>1320</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="4" t="s">
         <v>356</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="32.4">
+    <row r="146" spans="1:5" ht="38">
       <c r="A146" s="3" t="s">
         <v>357</v>
       </c>
@@ -21284,14 +21268,14 @@
       <c r="C146" s="4" t="s">
         <v>1321</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="4" t="s">
         <v>358</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" ht="19">
       <c r="A147" s="3" t="s">
         <v>360</v>
       </c>
@@ -21301,14 +21285,14 @@
       <c r="C147" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D147" s="9" t="s">
+      <c r="D147" s="4" t="s">
         <v>366</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" ht="19">
       <c r="A148" s="3" t="s">
         <v>362</v>
       </c>
@@ -21318,14 +21302,14 @@
       <c r="C148" s="4" t="s">
         <v>1322</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="4" t="s">
         <v>365</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" ht="19">
       <c r="A149" s="3" t="s">
         <v>367</v>
       </c>
@@ -21335,14 +21319,14 @@
       <c r="C149" s="4" t="s">
         <v>1323</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="4" t="s">
         <v>371</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" ht="19">
       <c r="A150" s="3" t="s">
         <v>368</v>
       </c>
@@ -21352,14 +21336,14 @@
       <c r="C150" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D150" s="4" t="s">
         <v>372</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" ht="19">
       <c r="A151" s="3" t="s">
         <v>374</v>
       </c>
@@ -21369,14 +21353,14 @@
       <c r="C151" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="4" t="s">
         <v>380</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" ht="19">
       <c r="A152" s="3" t="s">
         <v>375</v>
       </c>
@@ -21386,14 +21370,14 @@
       <c r="C152" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" ht="19">
       <c r="A153" s="3" t="s">
         <v>381</v>
       </c>
@@ -21403,14 +21387,14 @@
       <c r="C153" s="4" t="s">
         <v>1325</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="4" t="s">
         <v>385</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" ht="19">
       <c r="A154" s="3" t="s">
         <v>383</v>
       </c>
@@ -21420,14 +21404,14 @@
       <c r="C154" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="4" t="s">
         <v>1327</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" ht="19">
       <c r="A155" s="3" t="s">
         <v>386</v>
       </c>
@@ -21437,14 +21421,14 @@
       <c r="C155" s="4" t="s">
         <v>1328</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="4" t="s">
         <v>391</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" ht="19">
       <c r="A156" s="3" t="s">
         <v>387</v>
       </c>
@@ -21454,14 +21438,14 @@
       <c r="C156" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D156" s="4" t="s">
         <v>392</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" ht="19">
       <c r="A157" s="3" t="s">
         <v>388</v>
       </c>
@@ -21471,14 +21455,14 @@
       <c r="C157" s="4" t="s">
         <v>1329</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="4" t="s">
         <v>393</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" ht="19">
       <c r="A158" s="3" t="s">
         <v>389</v>
       </c>
@@ -21488,14 +21472,14 @@
       <c r="C158" s="4" t="s">
         <v>1330</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="4" t="s">
         <v>394</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" ht="19">
       <c r="A159" s="3" t="s">
         <v>398</v>
       </c>
@@ -21505,14 +21489,14 @@
       <c r="C159" s="4" t="s">
         <v>1331</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="4" t="s">
         <v>399</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" ht="19">
       <c r="A160" s="3" t="s">
         <v>401</v>
       </c>
@@ -21522,14 +21506,14 @@
       <c r="C160" s="4" t="s">
         <v>1332</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="4" t="s">
         <v>403</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" ht="19">
       <c r="A161" s="3" t="s">
         <v>405</v>
       </c>
@@ -21539,14 +21523,14 @@
       <c r="C161" s="4" t="s">
         <v>1333</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="4" t="s">
         <v>406</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" ht="19">
       <c r="A162" s="3" t="s">
         <v>1029</v>
       </c>
@@ -21556,14 +21540,14 @@
       <c r="C162" s="4" t="s">
         <v>1168</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="4" t="s">
         <v>1149</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" ht="19">
       <c r="A163" s="3" t="s">
         <v>1030</v>
       </c>
@@ -21573,14 +21557,14 @@
       <c r="C163" s="4" t="s">
         <v>1334</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="4" t="s">
         <v>1161</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" ht="19">
       <c r="A164" s="3" t="s">
         <v>1031</v>
       </c>
@@ -21590,14 +21574,14 @@
       <c r="C164" s="4" t="s">
         <v>1335</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D164" s="4" t="s">
         <v>1169</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" ht="19">
       <c r="A165" s="3" t="s">
         <v>1032</v>
       </c>
@@ -21607,14 +21591,14 @@
       <c r="C165" s="4" t="s">
         <v>1336</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="4" t="s">
         <v>1176</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" ht="19">
       <c r="A166" s="3" t="s">
         <v>1033</v>
       </c>
@@ -21624,14 +21608,14 @@
       <c r="C166" s="5" t="s">
         <v>1337</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D166" s="4" t="s">
         <v>1154</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" ht="19">
       <c r="A167" s="3" t="s">
         <v>1034</v>
       </c>
@@ -21641,14 +21625,14 @@
       <c r="C167" s="4" t="s">
         <v>1152</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="4" t="s">
         <v>1152</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" ht="19">
       <c r="A168" s="3" t="s">
         <v>1035</v>
       </c>
@@ -21658,14 +21642,14 @@
       <c r="C168" s="4" t="s">
         <v>1153</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="4" t="s">
         <v>1153</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" ht="19">
       <c r="A169" s="3" t="s">
         <v>1036</v>
       </c>
@@ -21675,14 +21659,14 @@
       <c r="C169" s="4" t="s">
         <v>1338</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="4" t="s">
         <v>311</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" ht="19">
       <c r="A170" s="3" t="s">
         <v>1037</v>
       </c>
@@ -21692,14 +21676,14 @@
       <c r="C170" s="4" t="s">
         <v>1339</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D170" s="4" t="s">
         <v>1166</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="32.4">
+    <row r="171" spans="1:5" ht="38">
       <c r="A171" s="3" t="s">
         <v>1038</v>
       </c>
@@ -21709,14 +21693,14 @@
       <c r="C171" s="4" t="s">
         <v>1340</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="4" t="s">
         <v>1167</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" ht="19">
       <c r="A172" s="3" t="s">
         <v>1039</v>
       </c>
@@ -21726,14 +21710,14 @@
       <c r="C172" s="4" t="s">
         <v>1341</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="4" t="s">
         <v>1170</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" ht="19">
       <c r="A173" s="3" t="s">
         <v>1040</v>
       </c>
@@ -21743,14 +21727,14 @@
       <c r="C173" s="4" t="s">
         <v>1173</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="4" t="s">
         <v>1174</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" ht="19">
       <c r="A174" s="3" t="s">
         <v>1041</v>
       </c>
@@ -21760,14 +21744,14 @@
       <c r="C174" s="4" t="s">
         <v>1342</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="4" t="s">
         <v>1177</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" ht="19">
       <c r="A175" s="3" t="s">
         <v>1181</v>
       </c>
@@ -21777,14 +21761,14 @@
       <c r="C175" s="4" t="s">
         <v>1343</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="4" t="s">
         <v>1183</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" ht="19">
       <c r="A176" s="3" t="s">
         <v>1043</v>
       </c>
@@ -21794,14 +21778,14 @@
       <c r="C176" s="4" t="s">
         <v>1190</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D176" s="4" t="s">
         <v>1191</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" ht="19">
       <c r="A177" s="3" t="s">
         <v>1044</v>
       </c>
@@ -21811,14 +21795,14 @@
       <c r="C177" s="4" t="s">
         <v>1344</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D177" s="4" t="s">
         <v>1192</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" ht="19">
       <c r="A178" s="3" t="s">
         <v>1045</v>
       </c>
@@ -21828,14 +21812,14 @@
       <c r="C178" s="4" t="s">
         <v>1201</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="4" t="s">
         <v>1200</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" ht="19">
       <c r="A179" s="3" t="s">
         <v>1046</v>
       </c>
@@ -21845,14 +21829,14 @@
       <c r="C179" s="4" t="s">
         <v>1202</v>
       </c>
-      <c r="D179" s="9" t="s">
+      <c r="D179" s="4" t="s">
         <v>1198</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" ht="19">
       <c r="A180" s="3" t="s">
         <v>1047</v>
       </c>
@@ -21862,14 +21846,14 @@
       <c r="C180" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="D180" s="9" t="s">
+      <c r="D180" s="4" t="s">
         <v>1199</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" ht="19">
       <c r="A181" s="3" t="s">
         <v>1203</v>
       </c>
@@ -21879,7 +21863,7 @@
       <c r="C181" s="4" t="s">
         <v>1346</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D181" s="4" t="s">
         <v>1205</v>
       </c>
       <c r="E181" s="3" t="s">
@@ -21960,16 +21944,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8F8593-7A5F-4AE9-BFE3-4F7BAAD186D3}">
   <dimension ref="A1:E280"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" customWidth="1"/>
-    <col min="2" max="2" width="35.6328125" customWidth="1"/>
-    <col min="3" max="4" width="45.6328125" customWidth="1"/>
-    <col min="5" max="5" width="35.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="4" width="45.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -21989,7 +21971,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.2">
+    <row r="2" spans="1:5" ht="19">
       <c r="A2" s="3" t="s">
         <v>927</v>
       </c>
@@ -21999,14 +21981,14 @@
       <c r="C2" s="4" t="s">
         <v>1351</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>414</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.2">
+    <row r="3" spans="1:5" ht="19">
       <c r="A3" s="3" t="s">
         <v>928</v>
       </c>
@@ -22016,14 +21998,14 @@
       <c r="C3" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>415</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.2">
+    <row r="4" spans="1:5" ht="19">
       <c r="A4" s="3" t="s">
         <v>929</v>
       </c>
@@ -22033,14 +22015,14 @@
       <c r="C4" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>416</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.2">
+    <row r="5" spans="1:5" ht="19">
       <c r="A5" s="3" t="s">
         <v>930</v>
       </c>
@@ -22050,14 +22032,14 @@
       <c r="C5" s="4" t="s">
         <v>1352</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>417</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.2">
+    <row r="6" spans="1:5" ht="19">
       <c r="A6" s="3" t="s">
         <v>931</v>
       </c>
@@ -22067,14 +22049,14 @@
       <c r="C6" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="4" t="s">
         <v>418</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.2">
+    <row r="7" spans="1:5" ht="19">
       <c r="A7" s="3" t="s">
         <v>932</v>
       </c>
@@ -22084,14 +22066,14 @@
       <c r="C7" s="4" t="s">
         <v>1354</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="4" t="s">
         <v>419</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.2">
+    <row r="8" spans="1:5" ht="19">
       <c r="A8" s="3" t="s">
         <v>933</v>
       </c>
@@ -22101,14 +22083,14 @@
       <c r="C8" s="4" t="s">
         <v>1355</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="4" t="s">
         <v>420</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.2">
+    <row r="9" spans="1:5" ht="19">
       <c r="A9" s="3" t="s">
         <v>934</v>
       </c>
@@ -22118,14 +22100,14 @@
       <c r="C9" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="4" t="s">
         <v>421</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.2">
+    <row r="10" spans="1:5" ht="19">
       <c r="A10" s="3" t="s">
         <v>935</v>
       </c>
@@ -22135,14 +22117,14 @@
       <c r="C10" s="4" t="s">
         <v>1356</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>1560</v>
+      <c r="D10" s="8" t="s">
+        <v>1565</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.399999999999999">
+    <row r="11" spans="1:5" ht="19">
       <c r="A11" s="3" t="s">
         <v>936</v>
       </c>
@@ -22152,14 +22134,14 @@
       <c r="C11" s="4" t="s">
         <v>1357</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>1561</v>
+      <c r="D11" s="10" t="s">
+        <v>1566</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.2">
+    <row r="12" spans="1:5" ht="19">
       <c r="A12" s="3" t="s">
         <v>937</v>
       </c>
@@ -22169,14 +22151,14 @@
       <c r="C12" s="4" t="s">
         <v>1358</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="4" t="s">
         <v>422</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="69.45" customHeight="1">
+    <row r="13" spans="1:5" ht="69.5" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>938</v>
       </c>
@@ -22186,14 +22168,14 @@
       <c r="C13" s="4" t="s">
         <v>1359</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="4" t="s">
         <v>423</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.2">
+    <row r="14" spans="1:5" ht="19">
       <c r="A14" s="3" t="s">
         <v>939</v>
       </c>
@@ -22203,14 +22185,14 @@
       <c r="C14" s="4" t="s">
         <v>1360</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="4" t="s">
         <v>424</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.2">
+    <row r="15" spans="1:5" ht="19">
       <c r="A15" s="3" t="s">
         <v>940</v>
       </c>
@@ -22220,14 +22202,14 @@
       <c r="C15" s="4" t="s">
         <v>1361</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="4" t="s">
         <v>425</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.2">
+    <row r="16" spans="1:5" ht="19">
       <c r="A16" s="3" t="s">
         <v>941</v>
       </c>
@@ -22237,14 +22219,14 @@
       <c r="C16" s="4" t="s">
         <v>1362</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="4" t="s">
         <v>426</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.2">
+    <row r="17" spans="1:5" ht="19">
       <c r="A17" s="3" t="s">
         <v>942</v>
       </c>
@@ -22254,14 +22236,14 @@
       <c r="C17" s="4" t="s">
         <v>1363</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="4" t="s">
         <v>418</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.2">
+    <row r="18" spans="1:5" ht="19">
       <c r="A18" s="3" t="s">
         <v>943</v>
       </c>
@@ -22271,14 +22253,14 @@
       <c r="C18" s="4" t="s">
         <v>1364</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="4" t="s">
         <v>427</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.2">
+    <row r="19" spans="1:5" ht="19">
       <c r="A19" s="3" t="s">
         <v>944</v>
       </c>
@@ -22288,14 +22270,14 @@
       <c r="C19" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="4" t="s">
         <v>424</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32.4">
+    <row r="20" spans="1:5" ht="38">
       <c r="A20" s="3" t="s">
         <v>945</v>
       </c>
@@ -22305,14 +22287,14 @@
       <c r="C20" s="4" t="s">
         <v>1365</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="4" t="s">
         <v>428</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.2">
+    <row r="21" spans="1:5" ht="19">
       <c r="A21" s="3" t="s">
         <v>946</v>
       </c>
@@ -22322,14 +22304,14 @@
       <c r="C21" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="4" t="s">
         <v>448</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.2">
+    <row r="22" spans="1:5" ht="19">
       <c r="A22" s="3" t="s">
         <v>947</v>
       </c>
@@ -22339,14 +22321,14 @@
       <c r="C22" s="4" t="s">
         <v>1367</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="4" t="s">
         <v>449</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.2">
+    <row r="23" spans="1:5" ht="19">
       <c r="A23" s="3" t="s">
         <v>948</v>
       </c>
@@ -22356,14 +22338,14 @@
       <c r="C23" s="4" t="s">
         <v>1368</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="4" t="s">
         <v>450</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.2">
+    <row r="24" spans="1:5" ht="19">
       <c r="A24" s="3" t="s">
         <v>949</v>
       </c>
@@ -22373,14 +22355,14 @@
       <c r="C24" s="4" t="s">
         <v>1369</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="4" t="s">
         <v>451</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16.2">
+    <row r="25" spans="1:5" ht="19">
       <c r="A25" s="3" t="s">
         <v>950</v>
       </c>
@@ -22390,14 +22372,14 @@
       <c r="C25" s="4" t="s">
         <v>1370</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="4" t="s">
         <v>452</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16.2">
+    <row r="26" spans="1:5" ht="19">
       <c r="A26" s="3" t="s">
         <v>951</v>
       </c>
@@ -22407,14 +22389,14 @@
       <c r="C26" s="4" t="s">
         <v>1371</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="4" t="s">
         <v>458</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16.2">
+    <row r="27" spans="1:5" ht="19">
       <c r="A27" s="3" t="s">
         <v>952</v>
       </c>
@@ -22424,14 +22406,14 @@
       <c r="C27" s="4" t="s">
         <v>1372</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16.2">
+    <row r="28" spans="1:5" ht="19">
       <c r="A28" s="3" t="s">
         <v>953</v>
       </c>
@@ -22441,14 +22423,14 @@
       <c r="C28" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="4" t="s">
         <v>462</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16.2">
+    <row r="29" spans="1:5" ht="19">
       <c r="A29" s="3" t="s">
         <v>954</v>
       </c>
@@ -22458,14 +22440,14 @@
       <c r="C29" s="4" t="s">
         <v>1373</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="4" t="s">
         <v>464</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.2">
+    <row r="30" spans="1:5" ht="19">
       <c r="A30" s="3" t="s">
         <v>955</v>
       </c>
@@ -22475,14 +22457,14 @@
       <c r="C30" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="4" t="s">
         <v>466</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16.2">
+    <row r="31" spans="1:5" ht="19">
       <c r="A31" s="3" t="s">
         <v>956</v>
       </c>
@@ -22492,14 +22474,14 @@
       <c r="C31" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="4" t="s">
         <v>468</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16.2">
+    <row r="32" spans="1:5" ht="19">
       <c r="A32" s="3" t="s">
         <v>957</v>
       </c>
@@ -22509,14 +22491,14 @@
       <c r="C32" s="4" t="s">
         <v>1374</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="4" t="s">
         <v>470</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.2">
+    <row r="33" spans="1:5" ht="38">
       <c r="A33" s="3" t="s">
         <v>958</v>
       </c>
@@ -22526,14 +22508,14 @@
       <c r="C33" s="4" t="s">
         <v>1375</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="4" t="s">
         <v>472</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.2">
+    <row r="34" spans="1:5" ht="19">
       <c r="A34" s="3" t="s">
         <v>959</v>
       </c>
@@ -22543,14 +22525,14 @@
       <c r="C34" s="4" t="s">
         <v>1376</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="4" t="s">
         <v>474</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.2">
+    <row r="35" spans="1:5" ht="19">
       <c r="A35" s="3" t="s">
         <v>960</v>
       </c>
@@ -22560,14 +22542,14 @@
       <c r="C35" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="4" t="s">
         <v>476</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.2">
+    <row r="36" spans="1:5" ht="19">
       <c r="A36" s="3" t="s">
         <v>961</v>
       </c>
@@ -22577,14 +22559,14 @@
       <c r="C36" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="4" t="s">
         <v>478</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16.2">
+    <row r="37" spans="1:5" ht="19">
       <c r="A37" s="3" t="s">
         <v>962</v>
       </c>
@@ -22594,14 +22576,14 @@
       <c r="C37" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="4" t="s">
         <v>480</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16.2">
+    <row r="38" spans="1:5" ht="19">
       <c r="A38" s="3" t="s">
         <v>963</v>
       </c>
@@ -22611,14 +22593,14 @@
       <c r="C38" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="4" t="s">
         <v>462</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16.2">
+    <row r="39" spans="1:5" ht="19">
       <c r="A39" s="3" t="s">
         <v>964</v>
       </c>
@@ -22628,14 +22610,14 @@
       <c r="C39" s="4" t="s">
         <v>1373</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="4" t="s">
         <v>464</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16.2">
+    <row r="40" spans="1:5" ht="19">
       <c r="A40" s="3" t="s">
         <v>965</v>
       </c>
@@ -22645,14 +22627,14 @@
       <c r="C40" s="4" t="s">
         <v>1378</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="4" t="s">
         <v>484</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.2">
+    <row r="41" spans="1:5" ht="19">
       <c r="A41" s="3" t="s">
         <v>966</v>
       </c>
@@ -22662,14 +22644,14 @@
       <c r="C41" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="4" t="s">
         <v>486</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.2">
+    <row r="42" spans="1:5" ht="19">
       <c r="A42" s="3" t="s">
         <v>967</v>
       </c>
@@ -22679,14 +22661,14 @@
       <c r="C42" s="4" t="s">
         <v>893</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="4" t="s">
         <v>488</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16.2">
+    <row r="43" spans="1:5" ht="19">
       <c r="A43" s="3" t="s">
         <v>968</v>
       </c>
@@ -22696,14 +22678,14 @@
       <c r="C43" s="4" t="s">
         <v>1379</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="4" t="s">
         <v>490</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16.2">
+    <row r="44" spans="1:5" ht="19">
       <c r="A44" s="3" t="s">
         <v>969</v>
       </c>
@@ -22713,14 +22695,14 @@
       <c r="C44" s="4" t="s">
         <v>1380</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="4" t="s">
         <v>558</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16.2">
+    <row r="45" spans="1:5" ht="19">
       <c r="A45" s="3" t="s">
         <v>970</v>
       </c>
@@ -22730,14 +22712,14 @@
       <c r="C45" s="4" t="s">
         <v>1381</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="4" t="s">
         <v>557</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16.2">
+    <row r="46" spans="1:5" ht="19">
       <c r="A46" s="3" t="s">
         <v>971</v>
       </c>
@@ -22747,14 +22729,14 @@
       <c r="C46" s="4" t="s">
         <v>1382</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="4" t="s">
         <v>492</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16.2">
+    <row r="47" spans="1:5" ht="19">
       <c r="A47" s="3" t="s">
         <v>972</v>
       </c>
@@ -22764,14 +22746,14 @@
       <c r="C47" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="4" t="s">
         <v>466</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16.2">
+    <row r="48" spans="1:5" ht="19">
       <c r="A48" s="3" t="s">
         <v>973</v>
       </c>
@@ -22781,14 +22763,14 @@
       <c r="C48" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="4" t="s">
         <v>495</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.2">
+    <row r="49" spans="1:5" ht="19">
       <c r="A49" s="3" t="s">
         <v>974</v>
       </c>
@@ -22798,14 +22780,14 @@
       <c r="C49" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="4" t="s">
         <v>468</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.2">
+    <row r="50" spans="1:5" ht="19">
       <c r="A50" s="3" t="s">
         <v>975</v>
       </c>
@@ -22815,14 +22797,14 @@
       <c r="C50" s="4" t="s">
         <v>1374</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="4" t="s">
         <v>470</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.2">
+    <row r="51" spans="1:5" ht="19">
       <c r="A51" s="3" t="s">
         <v>976</v>
       </c>
@@ -22832,14 +22814,14 @@
       <c r="C51" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="4" t="s">
         <v>499</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16.2">
+    <row r="52" spans="1:5" ht="19">
       <c r="A52" s="3" t="s">
         <v>977</v>
       </c>
@@ -22849,14 +22831,14 @@
       <c r="C52" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="4" t="s">
         <v>501</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.2">
+    <row r="53" spans="1:5" ht="19">
       <c r="A53" s="3" t="s">
         <v>978</v>
       </c>
@@ -22866,14 +22848,14 @@
       <c r="C53" s="4" t="s">
         <v>1383</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="4" t="s">
         <v>503</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.2">
+    <row r="54" spans="1:5" ht="19">
       <c r="A54" s="3" t="s">
         <v>979</v>
       </c>
@@ -22883,14 +22865,14 @@
       <c r="C54" s="4" t="s">
         <v>1384</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="4" t="s">
         <v>505</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16.2">
+    <row r="55" spans="1:5" ht="19">
       <c r="A55" s="3" t="s">
         <v>980</v>
       </c>
@@ -22900,14 +22882,14 @@
       <c r="C55" s="4" t="s">
         <v>1385</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="4" t="s">
         <v>507</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.2">
+    <row r="56" spans="1:5" ht="19">
       <c r="A56" s="3" t="s">
         <v>981</v>
       </c>
@@ -22917,14 +22899,14 @@
       <c r="C56" s="4" t="s">
         <v>1386</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="4" t="s">
         <v>509</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.2">
+    <row r="57" spans="1:5" ht="19">
       <c r="A57" s="3" t="s">
         <v>982</v>
       </c>
@@ -22934,14 +22916,14 @@
       <c r="C57" s="4" t="s">
         <v>1387</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="4" t="s">
         <v>511</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16.2">
+    <row r="58" spans="1:5" ht="19">
       <c r="A58" s="3" t="s">
         <v>983</v>
       </c>
@@ -22951,14 +22933,14 @@
       <c r="C58" s="4" t="s">
         <v>1388</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="4" t="s">
         <v>513</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16.2">
+    <row r="59" spans="1:5" ht="19">
       <c r="A59" s="3" t="s">
         <v>984</v>
       </c>
@@ -22968,14 +22950,14 @@
       <c r="C59" s="4" t="s">
         <v>1389</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="4" t="s">
         <v>515</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16.2">
+    <row r="60" spans="1:5" ht="19">
       <c r="A60" s="3" t="s">
         <v>985</v>
       </c>
@@ -22985,14 +22967,14 @@
       <c r="C60" s="4" t="s">
         <v>1390</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="4" t="s">
         <v>517</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16.2">
+    <row r="61" spans="1:5" ht="19">
       <c r="A61" s="3" t="s">
         <v>986</v>
       </c>
@@ -23002,14 +22984,14 @@
       <c r="C61" s="4" t="s">
         <v>1391</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="4" t="s">
         <v>519</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16.2">
+    <row r="62" spans="1:5" ht="19">
       <c r="A62" s="3" t="s">
         <v>987</v>
       </c>
@@ -23019,14 +23001,14 @@
       <c r="C62" s="4" t="s">
         <v>1392</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="4" t="s">
         <v>521</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16.2">
+    <row r="63" spans="1:5" ht="19">
       <c r="A63" s="3" t="s">
         <v>988</v>
       </c>
@@ -23036,14 +23018,14 @@
       <c r="C63" s="4" t="s">
         <v>1393</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="4" t="s">
         <v>523</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16.2">
+    <row r="64" spans="1:5" ht="19">
       <c r="A64" s="3" t="s">
         <v>989</v>
       </c>
@@ -23053,14 +23035,14 @@
       <c r="C64" s="4" t="s">
         <v>1394</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="4" t="s">
         <v>525</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="16.2">
+    <row r="65" spans="1:5" ht="19">
       <c r="A65" s="3" t="s">
         <v>990</v>
       </c>
@@ -23070,14 +23052,14 @@
       <c r="C65" s="4" t="s">
         <v>1395</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="4" t="s">
         <v>527</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="16.2">
+    <row r="66" spans="1:5" ht="19">
       <c r="A66" s="3" t="s">
         <v>991</v>
       </c>
@@ -23087,14 +23069,14 @@
       <c r="C66" s="4" t="s">
         <v>1396</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="4" t="s">
         <v>529</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="16.2">
+    <row r="67" spans="1:5" ht="19">
       <c r="A67" s="3" t="s">
         <v>992</v>
       </c>
@@ -23104,14 +23086,14 @@
       <c r="C67" s="4" t="s">
         <v>1397</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>1556</v>
+      <c r="D67" s="8" t="s">
+        <v>1567</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="16.2">
+    <row r="68" spans="1:5" ht="19">
       <c r="A68" s="3" t="s">
         <v>993</v>
       </c>
@@ -23121,14 +23103,14 @@
       <c r="C68" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="4" t="s">
         <v>480</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="16.2">
+    <row r="69" spans="1:5" ht="19">
       <c r="A69" s="3" t="s">
         <v>994</v>
       </c>
@@ -23138,14 +23120,14 @@
       <c r="C69" s="4" t="s">
         <v>1398</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="4" t="s">
         <v>517</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="16.2">
+    <row r="70" spans="1:5" ht="19">
       <c r="A70" s="3" t="s">
         <v>995</v>
       </c>
@@ -23155,14 +23137,14 @@
       <c r="C70" s="4" t="s">
         <v>1399</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="4" t="s">
         <v>534</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16.2">
+    <row r="71" spans="1:5" ht="19">
       <c r="A71" s="3" t="s">
         <v>996</v>
       </c>
@@ -23172,14 +23154,14 @@
       <c r="C71" s="4" t="s">
         <v>1400</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="4" t="s">
         <v>536</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="16.2">
+    <row r="72" spans="1:5" ht="19">
       <c r="A72" s="3" t="s">
         <v>997</v>
       </c>
@@ -23189,14 +23171,14 @@
       <c r="C72" s="4" t="s">
         <v>1401</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="4" t="s">
         <v>538</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16.2">
+    <row r="73" spans="1:5" ht="19">
       <c r="A73" s="3" t="s">
         <v>998</v>
       </c>
@@ -23206,14 +23188,14 @@
       <c r="C73" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="4" t="s">
         <v>540</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16.2">
+    <row r="74" spans="1:5" ht="19">
       <c r="A74" s="3" t="s">
         <v>999</v>
       </c>
@@ -23223,14 +23205,14 @@
       <c r="C74" s="4" t="s">
         <v>1403</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="4" t="s">
         <v>499</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16.2">
+    <row r="75" spans="1:5" ht="19">
       <c r="A75" s="3" t="s">
         <v>1000</v>
       </c>
@@ -23240,14 +23222,14 @@
       <c r="C75" s="4" t="s">
         <v>1404</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="4" t="s">
         <v>543</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="16.2">
+    <row r="76" spans="1:5" ht="19">
       <c r="A76" s="3" t="s">
         <v>1001</v>
       </c>
@@ -23257,14 +23239,14 @@
       <c r="C76" s="4" t="s">
         <v>1405</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="4" t="s">
         <v>545</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16.2">
+    <row r="77" spans="1:5" ht="19">
       <c r="A77" s="3" t="s">
         <v>1002</v>
       </c>
@@ -23274,14 +23256,14 @@
       <c r="C77" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="4" t="s">
         <v>547</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16.2">
+    <row r="78" spans="1:5" ht="19">
       <c r="A78" s="3" t="s">
         <v>1003</v>
       </c>
@@ -23291,14 +23273,14 @@
       <c r="C78" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="4" t="s">
         <v>549</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="16.2">
+    <row r="79" spans="1:5" ht="19">
       <c r="A79" s="3" t="s">
         <v>1004</v>
       </c>
@@ -23308,14 +23290,14 @@
       <c r="C79" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="4" t="s">
         <v>488</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16.2">
+    <row r="80" spans="1:5" ht="19">
       <c r="A80" s="3" t="s">
         <v>1005</v>
       </c>
@@ -23325,14 +23307,14 @@
       <c r="C80" s="4" t="s">
         <v>1407</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="4" t="s">
         <v>552</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16.2">
+    <row r="81" spans="1:5" ht="19">
       <c r="A81" s="3" t="s">
         <v>1006</v>
       </c>
@@ -23342,14 +23324,14 @@
       <c r="C81" s="4" t="s">
         <v>1408</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="4" t="s">
         <v>509</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16.2">
+    <row r="82" spans="1:5" ht="19">
       <c r="A82" s="3" t="s">
         <v>1007</v>
       </c>
@@ -23359,14 +23341,14 @@
       <c r="C82" s="4" t="s">
         <v>1409</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="4" t="s">
         <v>559</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="16.2">
+    <row r="83" spans="1:5" ht="19">
       <c r="A83" s="3" t="s">
         <v>1008</v>
       </c>
@@ -23376,14 +23358,14 @@
       <c r="C83" s="4" t="s">
         <v>1372</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="4" t="s">
         <v>460</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16.2">
+    <row r="84" spans="1:5" ht="19">
       <c r="A84" s="3" t="s">
         <v>1009</v>
       </c>
@@ -23393,14 +23375,14 @@
       <c r="C84" s="4" t="s">
         <v>1410</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="4" t="s">
         <v>560</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16.2">
+    <row r="85" spans="1:5" ht="19">
       <c r="A85" s="3" t="s">
         <v>1010</v>
       </c>
@@ -23410,14 +23392,14 @@
       <c r="C85" s="4" t="s">
         <v>1411</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="4" t="s">
         <v>561</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="16.2">
+    <row r="86" spans="1:5" ht="19">
       <c r="A86" s="3" t="s">
         <v>1011</v>
       </c>
@@ -23427,14 +23409,14 @@
       <c r="C86" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="4" t="s">
         <v>468</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16.2">
+    <row r="87" spans="1:5" ht="19">
       <c r="A87" s="3" t="s">
         <v>1012</v>
       </c>
@@ -23444,14 +23426,14 @@
       <c r="C87" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="4" t="s">
         <v>562</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16.2">
+    <row r="88" spans="1:5" ht="38">
       <c r="A88" s="3" t="s">
         <v>1013</v>
       </c>
@@ -23461,14 +23443,14 @@
       <c r="C88" s="4" t="s">
         <v>1375</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="4" t="s">
         <v>563</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16.2">
+    <row r="89" spans="1:5" ht="19">
       <c r="A89" s="3" t="s">
         <v>1014</v>
       </c>
@@ -23478,14 +23460,14 @@
       <c r="C89" s="4" t="s">
         <v>1412</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="4" t="s">
         <v>565</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16.2">
+    <row r="90" spans="1:5" ht="19">
       <c r="A90" s="3" t="s">
         <v>1015</v>
       </c>
@@ -23495,14 +23477,14 @@
       <c r="C90" s="4" t="s">
         <v>1413</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="4" t="s">
         <v>566</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16.2">
+    <row r="91" spans="1:5" ht="19">
       <c r="A91" s="3" t="s">
         <v>1016</v>
       </c>
@@ -23512,14 +23494,14 @@
       <c r="C91" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="4" t="s">
         <v>476</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16.2">
+    <row r="92" spans="1:5" ht="19">
       <c r="A92" s="3" t="s">
         <v>1017</v>
       </c>
@@ -23529,14 +23511,14 @@
       <c r="C92" s="4" t="s">
         <v>1414</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="4" t="s">
         <v>569</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16.2">
+    <row r="93" spans="1:5" ht="19">
       <c r="A93" s="3" t="s">
         <v>1018</v>
       </c>
@@ -23546,14 +23528,14 @@
       <c r="C93" s="4" t="s">
         <v>1415</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="4" t="s">
         <v>571</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16.2">
+    <row r="94" spans="1:5" ht="19">
       <c r="A94" s="3" t="s">
         <v>1019</v>
       </c>
@@ -23563,14 +23545,14 @@
       <c r="C94" s="4" t="s">
         <v>1416</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="4" t="s">
         <v>573</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16.2">
+    <row r="95" spans="1:5" ht="19">
       <c r="A95" s="3" t="s">
         <v>1020</v>
       </c>
@@ -23580,14 +23562,14 @@
       <c r="C95" s="4" t="s">
         <v>1417</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="4" t="s">
         <v>575</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16.2">
+    <row r="96" spans="1:5" ht="19">
       <c r="A96" s="3" t="s">
         <v>1021</v>
       </c>
@@ -23597,14 +23579,14 @@
       <c r="C96" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="4" t="s">
         <v>480</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16.2">
+    <row r="97" spans="1:5" ht="19">
       <c r="A97" s="3" t="s">
         <v>1022</v>
       </c>
@@ -23614,14 +23596,14 @@
       <c r="C97" s="4" t="s">
         <v>1410</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="4" t="s">
         <v>560</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="16.2">
+    <row r="98" spans="1:5" ht="19">
       <c r="A98" s="3" t="s">
         <v>1023</v>
       </c>
@@ -23631,14 +23613,14 @@
       <c r="C98" s="4" t="s">
         <v>1411</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="4" t="s">
         <v>561</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="16.2">
+    <row r="99" spans="1:5" ht="19">
       <c r="A99" s="3" t="s">
         <v>1024</v>
       </c>
@@ -23648,14 +23630,14 @@
       <c r="C99" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="4" t="s">
         <v>579</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16.2">
+    <row r="100" spans="1:5" ht="19">
       <c r="A100" s="3" t="s">
         <v>1025</v>
       </c>
@@ -23665,14 +23647,14 @@
       <c r="C100" s="4" t="s">
         <v>1378</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="4" t="s">
         <v>484</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="16.2">
+    <row r="101" spans="1:5" ht="19">
       <c r="A101" s="3" t="s">
         <v>1026</v>
       </c>
@@ -23682,14 +23664,14 @@
       <c r="C101" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="4" t="s">
         <v>582</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="16.2">
+    <row r="102" spans="1:5" ht="19">
       <c r="A102" s="3" t="s">
         <v>1027</v>
       </c>
@@ -23699,14 +23681,14 @@
       <c r="C102" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="4" t="s">
         <v>584</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16.2">
+    <row r="103" spans="1:5" ht="19">
       <c r="A103" s="3" t="s">
         <v>1028</v>
       </c>
@@ -23716,14 +23698,14 @@
       <c r="C103" s="4" t="s">
         <v>1419</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="4" t="s">
         <v>492</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16.2">
+    <row r="104" spans="1:5" ht="19">
       <c r="A104" s="3" t="s">
         <v>230</v>
       </c>
@@ -23733,14 +23715,14 @@
       <c r="C104" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="4" t="s">
         <v>562</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="16.2">
+    <row r="105" spans="1:5" ht="19">
       <c r="A105" s="3" t="s">
         <v>232</v>
       </c>
@@ -23750,14 +23732,14 @@
       <c r="C105" s="4" t="s">
         <v>1420</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="4" t="s">
         <v>588</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16.2">
+    <row r="106" spans="1:5" ht="19">
       <c r="A106" s="3" t="s">
         <v>234</v>
       </c>
@@ -23767,14 +23749,14 @@
       <c r="C106" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="4" t="s">
         <v>818</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16.2">
+    <row r="107" spans="1:5" ht="19">
       <c r="A107" s="3" t="s">
         <v>236</v>
       </c>
@@ -23784,14 +23766,14 @@
       <c r="C107" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="4" t="s">
         <v>499</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="16.2">
+    <row r="108" spans="1:5" ht="19">
       <c r="A108" s="3" t="s">
         <v>238</v>
       </c>
@@ -23801,14 +23783,14 @@
       <c r="C108" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="4" t="s">
         <v>501</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="16.2">
+    <row r="109" spans="1:5" ht="19">
       <c r="A109" s="3" t="s">
         <v>244</v>
       </c>
@@ -23818,14 +23800,14 @@
       <c r="C109" s="4" t="s">
         <v>1422</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="4" t="s">
         <v>592</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="16.2">
+    <row r="110" spans="1:5" ht="19">
       <c r="A110" s="3" t="s">
         <v>247</v>
       </c>
@@ -23835,14 +23817,14 @@
       <c r="C110" s="4" t="s">
         <v>1423</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="4" t="s">
         <v>594</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="16.2">
+    <row r="111" spans="1:5" ht="19">
       <c r="A111" s="3" t="s">
         <v>249</v>
       </c>
@@ -23852,14 +23834,14 @@
       <c r="C111" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="4" t="s">
         <v>596</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16.2">
+    <row r="112" spans="1:5" ht="19">
       <c r="A112" s="3" t="s">
         <v>253</v>
       </c>
@@ -23869,14 +23851,14 @@
       <c r="C112" s="4" t="s">
         <v>1425</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="4" t="s">
         <v>598</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="16.2">
+    <row r="113" spans="1:5" ht="19">
       <c r="A113" s="3" t="s">
         <v>256</v>
       </c>
@@ -23886,14 +23868,14 @@
       <c r="C113" s="4" t="s">
         <v>1426</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="4" t="s">
         <v>600</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16.2">
+    <row r="114" spans="1:5" ht="19">
       <c r="A114" s="3" t="s">
         <v>258</v>
       </c>
@@ -23903,14 +23885,14 @@
       <c r="C114" s="4" t="s">
         <v>1427</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="4" t="s">
         <v>602</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="16.2">
+    <row r="115" spans="1:5" ht="19">
       <c r="A115" s="3" t="s">
         <v>260</v>
       </c>
@@ -23920,14 +23902,14 @@
       <c r="C115" s="4" t="s">
         <v>899</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="4" t="s">
         <v>604</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="16.2">
+    <row r="116" spans="1:5" ht="19">
       <c r="A116" s="3" t="s">
         <v>266</v>
       </c>
@@ -23937,14 +23919,14 @@
       <c r="C116" s="4" t="s">
         <v>1410</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="4" t="s">
         <v>560</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16.2">
+    <row r="117" spans="1:5" ht="19">
       <c r="A117" s="3" t="s">
         <v>269</v>
       </c>
@@ -23954,14 +23936,14 @@
       <c r="C117" s="4" t="s">
         <v>1428</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="4" t="s">
         <v>607</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="16.2">
+    <row r="118" spans="1:5" ht="19">
       <c r="A118" s="3" t="s">
         <v>271</v>
       </c>
@@ -23971,14 +23953,14 @@
       <c r="C118" s="4" t="s">
         <v>1429</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="4" t="s">
         <v>609</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="16.2">
+    <row r="119" spans="1:5" ht="19">
       <c r="A119" s="3" t="s">
         <v>273</v>
       </c>
@@ -23988,14 +23970,14 @@
       <c r="C119" s="4" t="s">
         <v>1430</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="4" t="s">
         <v>611</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="16.2">
+    <row r="120" spans="1:5" ht="19">
       <c r="A120" s="3" t="s">
         <v>275</v>
       </c>
@@ -24005,14 +23987,14 @@
       <c r="C120" s="4" t="s">
         <v>1411</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="4" t="s">
         <v>561</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="16.2">
+    <row r="121" spans="1:5" ht="19">
       <c r="A121" s="3" t="s">
         <v>277</v>
       </c>
@@ -24022,14 +24004,14 @@
       <c r="C121" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="4" t="s">
         <v>917</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="16.2">
+    <row r="122" spans="1:5" ht="19">
       <c r="A122" s="3" t="s">
         <v>284</v>
       </c>
@@ -24039,14 +24021,14 @@
       <c r="C122" s="4" t="s">
         <v>1432</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="4" t="s">
         <v>613</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="16.2">
+    <row r="123" spans="1:5" ht="19">
       <c r="A123" s="3" t="s">
         <v>286</v>
       </c>
@@ -24056,14 +24038,14 @@
       <c r="C123" s="4" t="s">
         <v>1433</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="4" t="s">
         <v>615</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="16.2">
+    <row r="124" spans="1:5" ht="19">
       <c r="A124" s="3" t="s">
         <v>288</v>
       </c>
@@ -24073,14 +24055,14 @@
       <c r="C124" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="4" t="s">
         <v>617</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="16.2">
+    <row r="125" spans="1:5" ht="19">
       <c r="A125" s="3" t="s">
         <v>294</v>
       </c>
@@ -24090,14 +24072,14 @@
       <c r="C125" s="4" t="s">
         <v>1435</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="4" t="s">
         <v>619</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="16.2">
+    <row r="126" spans="1:5" ht="19">
       <c r="A126" s="3" t="s">
         <v>296</v>
       </c>
@@ -24107,14 +24089,14 @@
       <c r="C126" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="4" t="s">
         <v>562</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="16.2">
+    <row r="127" spans="1:5" ht="19">
       <c r="A127" s="3" t="s">
         <v>298</v>
       </c>
@@ -24124,14 +24106,14 @@
       <c r="C127" s="4" t="s">
         <v>1436</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="4" t="s">
         <v>622</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16.2">
+    <row r="128" spans="1:5" ht="19">
       <c r="A128" s="3" t="s">
         <v>300</v>
       </c>
@@ -24141,14 +24123,14 @@
       <c r="C128" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="4" t="s">
         <v>579</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="16.2">
+    <row r="129" spans="1:5" ht="19">
       <c r="A129" s="3" t="s">
         <v>302</v>
       </c>
@@ -24158,14 +24140,14 @@
       <c r="C129" s="4" t="s">
         <v>1437</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="4" t="s">
         <v>625</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="16.2">
+    <row r="130" spans="1:5" ht="19">
       <c r="A130" s="3" t="s">
         <v>304</v>
       </c>
@@ -24175,14 +24157,14 @@
       <c r="C130" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D130" s="4" t="s">
         <v>627</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="16.2">
+    <row r="131" spans="1:5" ht="19">
       <c r="A131" s="3" t="s">
         <v>313</v>
       </c>
@@ -24192,14 +24174,14 @@
       <c r="C131" s="4" t="s">
         <v>1438</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D131" s="4" t="s">
         <v>629</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="16.2">
+    <row r="132" spans="1:5" ht="19">
       <c r="A132" s="3" t="s">
         <v>315</v>
       </c>
@@ -24209,14 +24191,14 @@
       <c r="C132" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="4" t="s">
         <v>631</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="16.2">
+    <row r="133" spans="1:5" ht="19">
       <c r="A133" s="3" t="s">
         <v>319</v>
       </c>
@@ -24226,14 +24208,14 @@
       <c r="C133" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="4" t="s">
         <v>633</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="16.2">
+    <row r="134" spans="1:5" ht="19">
       <c r="A134" s="3" t="s">
         <v>322</v>
       </c>
@@ -24243,14 +24225,14 @@
       <c r="C134" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="4" t="s">
         <v>818</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16.2">
+    <row r="135" spans="1:5" ht="19">
       <c r="A135" s="3" t="s">
         <v>323</v>
       </c>
@@ -24260,14 +24242,14 @@
       <c r="C135" s="4" t="s">
         <v>1441</v>
       </c>
-      <c r="D135" s="9" t="s">
-        <v>1558</v>
+      <c r="D135" s="8" t="s">
+        <v>1568</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16.2">
+    <row r="136" spans="1:5" ht="19">
       <c r="A136" s="3" t="s">
         <v>324</v>
       </c>
@@ -24277,14 +24259,14 @@
       <c r="C136" s="4" t="s">
         <v>1442</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="4" t="s">
         <v>636</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="32.4">
+    <row r="137" spans="1:5" ht="38">
       <c r="A137" s="3" t="s">
         <v>328</v>
       </c>
@@ -24294,14 +24276,14 @@
       <c r="C137" s="4" t="s">
         <v>1443</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="4" t="s">
         <v>638</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="16.2">
+    <row r="138" spans="1:5" ht="19">
       <c r="A138" s="3" t="s">
         <v>331</v>
       </c>
@@ -24311,14 +24293,14 @@
       <c r="C138" s="4" t="s">
         <v>1444</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="4" t="s">
         <v>640</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="16.2">
+    <row r="139" spans="1:5" ht="19">
       <c r="A139" s="3" t="s">
         <v>337</v>
       </c>
@@ -24328,14 +24310,14 @@
       <c r="C139" s="4" t="s">
         <v>1445</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="4" t="s">
         <v>642</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="16.2">
+    <row r="140" spans="1:5" ht="19">
       <c r="A140" s="3" t="s">
         <v>338</v>
       </c>
@@ -24345,14 +24327,14 @@
       <c r="C140" s="4" t="s">
         <v>1446</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="4" t="s">
         <v>644</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="16.2">
+    <row r="141" spans="1:5" ht="19">
       <c r="A141" s="3" t="s">
         <v>343</v>
       </c>
@@ -24362,14 +24344,14 @@
       <c r="C141" s="4" t="s">
         <v>1447</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="4" t="s">
         <v>646</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="16.2">
+    <row r="142" spans="1:5" ht="19">
       <c r="A142" s="3" t="s">
         <v>344</v>
       </c>
@@ -24379,14 +24361,14 @@
       <c r="C142" s="4" t="s">
         <v>1448</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="D142" s="4" t="s">
         <v>820</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="16.2">
+    <row r="143" spans="1:5" ht="19">
       <c r="A143" s="3" t="s">
         <v>345</v>
       </c>
@@ -24396,14 +24378,14 @@
       <c r="C143" s="4" t="s">
         <v>1449</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="4" t="s">
         <v>821</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="16.2">
+    <row r="144" spans="1:5" ht="19">
       <c r="A144" s="3" t="s">
         <v>346</v>
       </c>
@@ -24413,14 +24395,14 @@
       <c r="C144" s="4" t="s">
         <v>1450</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D144" s="4" t="s">
         <v>822</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="16.2">
+    <row r="145" spans="1:5" ht="19">
       <c r="A145" s="3" t="s">
         <v>347</v>
       </c>
@@ -24430,14 +24412,14 @@
       <c r="C145" s="4" t="s">
         <v>1451</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="4" t="s">
         <v>823</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="16.2">
+    <row r="146" spans="1:5" ht="19">
       <c r="A146" s="3" t="s">
         <v>357</v>
       </c>
@@ -24447,14 +24429,14 @@
       <c r="C146" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="4" t="s">
         <v>648</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="16.2">
+    <row r="147" spans="1:5" ht="19">
       <c r="A147" s="3" t="s">
         <v>360</v>
       </c>
@@ -24464,14 +24446,14 @@
       <c r="C147" s="4" t="s">
         <v>1453</v>
       </c>
-      <c r="D147" s="9" t="s">
+      <c r="D147" s="4" t="s">
         <v>650</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="16.2">
+    <row r="148" spans="1:5" ht="19">
       <c r="A148" s="3" t="s">
         <v>362</v>
       </c>
@@ -24481,14 +24463,14 @@
       <c r="C148" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="4" t="s">
         <v>652</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="16.2">
+    <row r="149" spans="1:5" ht="19">
       <c r="A149" s="3" t="s">
         <v>367</v>
       </c>
@@ -24498,14 +24480,14 @@
       <c r="C149" s="4" t="s">
         <v>1455</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="4" t="s">
         <v>654</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="16.2">
+    <row r="150" spans="1:5" ht="19">
       <c r="A150" s="3" t="s">
         <v>368</v>
       </c>
@@ -24515,14 +24497,14 @@
       <c r="C150" s="4" t="s">
         <v>1456</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D150" s="4" t="s">
         <v>656</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="16.2">
+    <row r="151" spans="1:5" ht="19">
       <c r="A151" s="3" t="s">
         <v>374</v>
       </c>
@@ -24532,14 +24514,14 @@
       <c r="C151" s="4" t="s">
         <v>1457</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="4" t="s">
         <v>658</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="16.2">
+    <row r="152" spans="1:5" ht="19">
       <c r="A152" s="3" t="s">
         <v>375</v>
       </c>
@@ -24549,14 +24531,14 @@
       <c r="C152" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="4" t="s">
         <v>660</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="16.2">
+    <row r="153" spans="1:5" ht="19">
       <c r="A153" s="3" t="s">
         <v>381</v>
       </c>
@@ -24566,14 +24548,14 @@
       <c r="C153" s="4" t="s">
         <v>1459</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="4" t="s">
         <v>662</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="16.2">
+    <row r="154" spans="1:5" ht="19">
       <c r="A154" s="3" t="s">
         <v>383</v>
       </c>
@@ -24583,14 +24565,14 @@
       <c r="C154" s="4" t="s">
         <v>1460</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="4" t="s">
         <v>664</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="16.2">
+    <row r="155" spans="1:5" ht="19">
       <c r="A155" s="3" t="s">
         <v>386</v>
       </c>
@@ -24600,14 +24582,14 @@
       <c r="C155" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="4" t="s">
         <v>666</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="16.2">
+    <row r="156" spans="1:5" ht="19">
       <c r="A156" s="3" t="s">
         <v>387</v>
       </c>
@@ -24617,14 +24599,14 @@
       <c r="C156" s="4" t="s">
         <v>1461</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D156" s="4" t="s">
         <v>918</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="16.2">
+    <row r="157" spans="1:5" ht="19">
       <c r="A157" s="3" t="s">
         <v>388</v>
       </c>
@@ -24634,14 +24616,14 @@
       <c r="C157" s="4" t="s">
         <v>1437</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="4" t="s">
         <v>668</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="16.2">
+    <row r="158" spans="1:5" ht="19">
       <c r="A158" s="3" t="s">
         <v>389</v>
       </c>
@@ -24651,14 +24633,14 @@
       <c r="C158" s="4" t="s">
         <v>1438</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="4" t="s">
         <v>670</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="16.2">
+    <row r="159" spans="1:5" ht="19">
       <c r="A159" s="3" t="s">
         <v>398</v>
       </c>
@@ -24668,14 +24650,14 @@
       <c r="C159" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="4" t="s">
         <v>672</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="16.2">
+    <row r="160" spans="1:5" ht="19">
       <c r="A160" s="3" t="s">
         <v>401</v>
       </c>
@@ -24685,14 +24667,14 @@
       <c r="C160" s="4" t="s">
         <v>1462</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="4" t="s">
         <v>674</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="16.2">
+    <row r="161" spans="1:5" ht="19">
       <c r="A161" s="3" t="s">
         <v>405</v>
       </c>
@@ -24702,14 +24684,14 @@
       <c r="C161" s="4" t="s">
         <v>1463</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="4" t="s">
         <v>676</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="16.2">
+    <row r="162" spans="1:5" ht="19">
       <c r="A162" s="3" t="s">
         <v>1029</v>
       </c>
@@ -24719,14 +24701,14 @@
       <c r="C162" s="4" t="s">
         <v>1384</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="4" t="s">
         <v>505</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="16.2">
+    <row r="163" spans="1:5" ht="19">
       <c r="A163" s="3" t="s">
         <v>1030</v>
       </c>
@@ -24736,14 +24718,14 @@
       <c r="C163" s="4" t="s">
         <v>1389</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="4" t="s">
         <v>515</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="16.2">
+    <row r="164" spans="1:5" ht="19">
       <c r="A164" s="3" t="s">
         <v>1031</v>
       </c>
@@ -24760,7 +24742,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="16.2">
+    <row r="165" spans="1:5" ht="19">
       <c r="A165" s="3" t="s">
         <v>1032</v>
       </c>
@@ -24770,14 +24752,14 @@
       <c r="C165" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="4" t="s">
         <v>681</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="16.2">
+    <row r="166" spans="1:5" ht="19">
       <c r="A166" s="3" t="s">
         <v>1033</v>
       </c>
@@ -24787,14 +24769,14 @@
       <c r="C166" s="4" t="s">
         <v>1465</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D166" s="4" t="s">
         <v>683</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="16.2">
+    <row r="167" spans="1:5" ht="19">
       <c r="A167" s="3" t="s">
         <v>1034</v>
       </c>
@@ -24804,14 +24786,14 @@
       <c r="C167" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="4" t="s">
         <v>499</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="16.2">
+    <row r="168" spans="1:5" ht="19">
       <c r="A168" s="3" t="s">
         <v>1035</v>
       </c>
@@ -24821,14 +24803,14 @@
       <c r="C168" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="4" t="s">
         <v>549</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="16.2">
+    <row r="169" spans="1:5" ht="19">
       <c r="A169" s="3" t="s">
         <v>1036</v>
       </c>
@@ -24838,14 +24820,14 @@
       <c r="C169" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="4" t="s">
         <v>488</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="16.2">
+    <row r="170" spans="1:5" ht="19">
       <c r="A170" s="3" t="s">
         <v>1037</v>
       </c>
@@ -24855,14 +24837,14 @@
       <c r="C170" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D170" s="4" t="s">
         <v>584</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="16.2">
+    <row r="171" spans="1:5" ht="19">
       <c r="A171" s="3" t="s">
         <v>1038</v>
       </c>
@@ -24872,14 +24854,14 @@
       <c r="C171" s="4" t="s">
         <v>1466</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="4" t="s">
         <v>689</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="16.2">
+    <row r="172" spans="1:5" ht="19">
       <c r="A172" s="3" t="s">
         <v>1039</v>
       </c>
@@ -24889,14 +24871,14 @@
       <c r="C172" s="4" t="s">
         <v>1467</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="4" t="s">
         <v>836</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="16.2">
+    <row r="173" spans="1:5" ht="19">
       <c r="A173" s="3" t="s">
         <v>1040</v>
       </c>
@@ -24906,14 +24888,14 @@
       <c r="C173" s="4" t="s">
         <v>1468</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="4" t="s">
         <v>838</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="16.2">
+    <row r="174" spans="1:5" ht="19">
       <c r="A174" s="3" t="s">
         <v>1041</v>
       </c>
@@ -24923,14 +24905,14 @@
       <c r="C174" s="4" t="s">
         <v>1469</v>
       </c>
-      <c r="D174" s="9" t="s">
-        <v>1557</v>
+      <c r="D174" s="8" t="s">
+        <v>1569</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="16.2">
+    <row r="175" spans="1:5" ht="19">
       <c r="A175" s="3" t="s">
         <v>1042</v>
       </c>
@@ -24947,7 +24929,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="16.2">
+    <row r="176" spans="1:5" ht="19">
       <c r="A176" s="3" t="s">
         <v>1043</v>
       </c>
@@ -24957,14 +24939,14 @@
       <c r="C176" s="4" t="s">
         <v>1470</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D176" s="4" t="s">
         <v>692</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="16.2">
+    <row r="177" spans="1:5" ht="19">
       <c r="A177" s="3" t="s">
         <v>1044</v>
       </c>
@@ -24974,14 +24956,14 @@
       <c r="C177" s="4" t="s">
         <v>1471</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D177" s="4" t="s">
         <v>694</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="16.2">
+    <row r="178" spans="1:5" ht="19">
       <c r="A178" s="3" t="s">
         <v>1045</v>
       </c>
@@ -24991,14 +24973,14 @@
       <c r="C178" s="4" t="s">
         <v>1472</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="4" t="s">
         <v>696</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="16.2">
+    <row r="179" spans="1:5" ht="19">
       <c r="A179" s="3" t="s">
         <v>1046</v>
       </c>
@@ -25008,14 +24990,14 @@
       <c r="C179" s="4" t="s">
         <v>1473</v>
       </c>
-      <c r="D179" s="9" t="s">
+      <c r="D179" s="4" t="s">
         <v>698</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="16.2">
+    <row r="180" spans="1:5" ht="19">
       <c r="A180" s="3" t="s">
         <v>1047</v>
       </c>
@@ -25025,14 +25007,14 @@
       <c r="C180" s="4" t="s">
         <v>1474</v>
       </c>
-      <c r="D180" s="9" t="s">
+      <c r="D180" s="4" t="s">
         <v>700</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="16.2">
+    <row r="181" spans="1:5" ht="19">
       <c r="A181" s="3" t="s">
         <v>1048</v>
       </c>
@@ -25042,14 +25024,14 @@
       <c r="C181" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D181" s="4" t="s">
         <v>702</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="16.2">
+    <row r="182" spans="1:5" ht="19">
       <c r="A182" s="3" t="s">
         <v>1049</v>
       </c>
@@ -25059,14 +25041,14 @@
       <c r="C182" s="4" t="s">
         <v>1475</v>
       </c>
-      <c r="D182" s="9" t="s">
+      <c r="D182" s="4" t="s">
         <v>704</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="16.2">
+    <row r="183" spans="1:5" ht="19">
       <c r="A183" s="3" t="s">
         <v>1050</v>
       </c>
@@ -25076,14 +25058,14 @@
       <c r="C183" s="4" t="s">
         <v>1476</v>
       </c>
-      <c r="D183" s="9" t="s">
+      <c r="D183" s="4" t="s">
         <v>706</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="16.2">
+    <row r="184" spans="1:5" ht="19">
       <c r="A184" s="3" t="s">
         <v>1051</v>
       </c>
@@ -25093,14 +25075,14 @@
       <c r="C184" s="4" t="s">
         <v>1477</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="D184" s="4" t="s">
         <v>708</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="16.2">
+    <row r="185" spans="1:5" ht="19">
       <c r="A185" s="3" t="s">
         <v>1052</v>
       </c>
@@ -25110,14 +25092,14 @@
       <c r="C185" s="4" t="s">
         <v>1478</v>
       </c>
-      <c r="D185" s="9" t="s">
+      <c r="D185" s="4" t="s">
         <v>710</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="16.2">
+    <row r="186" spans="1:5" ht="19">
       <c r="A186" s="3" t="s">
         <v>1053</v>
       </c>
@@ -25127,14 +25109,14 @@
       <c r="C186" s="4" t="s">
         <v>1479</v>
       </c>
-      <c r="D186" s="9" t="s">
+      <c r="D186" s="4" t="s">
         <v>712</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="16.2">
+    <row r="187" spans="1:5" ht="19">
       <c r="A187" s="3" t="s">
         <v>1054</v>
       </c>
@@ -25144,14 +25126,14 @@
       <c r="C187" s="4" t="s">
         <v>1480</v>
       </c>
-      <c r="D187" s="9" t="s">
+      <c r="D187" s="4" t="s">
         <v>714</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="16.2">
+    <row r="188" spans="1:5" ht="19">
       <c r="A188" s="3" t="s">
         <v>1055</v>
       </c>
@@ -25161,14 +25143,14 @@
       <c r="C188" s="4" t="s">
         <v>1476</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="D188" s="4" t="s">
         <v>716</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="16.2">
+    <row r="189" spans="1:5" ht="19">
       <c r="A189" s="3" t="s">
         <v>1056</v>
       </c>
@@ -25178,14 +25160,14 @@
       <c r="C189" s="4" t="s">
         <v>1481</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="D189" s="4" t="s">
         <v>841</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="16.2">
+    <row r="190" spans="1:5" ht="19">
       <c r="A190" s="3" t="s">
         <v>1057</v>
       </c>
@@ -25195,14 +25177,14 @@
       <c r="C190" s="4" t="s">
         <v>1482</v>
       </c>
-      <c r="D190" s="9" t="s">
+      <c r="D190" s="4" t="s">
         <v>843</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="16.2">
+    <row r="191" spans="1:5" ht="19">
       <c r="A191" s="3" t="s">
         <v>1058</v>
       </c>
@@ -25212,14 +25194,14 @@
       <c r="C191" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="D191" s="9" t="s">
+      <c r="D191" s="4" t="s">
         <v>718</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="16.2">
+    <row r="192" spans="1:5" ht="19">
       <c r="A192" s="3" t="s">
         <v>1059</v>
       </c>
@@ -25229,14 +25211,14 @@
       <c r="C192" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="D192" s="9" t="s">
+      <c r="D192" s="4" t="s">
         <v>720</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="16.2">
+    <row r="193" spans="1:5" ht="19">
       <c r="A193" s="3" t="s">
         <v>1060</v>
       </c>
@@ -25246,14 +25228,14 @@
       <c r="C193" s="4" t="s">
         <v>1484</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="D193" s="4" t="s">
         <v>722</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="16.2">
+    <row r="194" spans="1:5" ht="19">
       <c r="A194" s="3" t="s">
         <v>1061</v>
       </c>
@@ -25263,14 +25245,14 @@
       <c r="C194" s="4" t="s">
         <v>1485</v>
       </c>
-      <c r="D194" s="9" t="s">
+      <c r="D194" s="4" t="s">
         <v>724</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="16.2">
+    <row r="195" spans="1:5" ht="19">
       <c r="A195" s="3" t="s">
         <v>1062</v>
       </c>
@@ -25280,14 +25262,14 @@
       <c r="C195" s="4" t="s">
         <v>1486</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="D195" s="4" t="s">
         <v>726</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="16.2">
+    <row r="196" spans="1:5" ht="19">
       <c r="A196" s="3" t="s">
         <v>1063</v>
       </c>
@@ -25297,14 +25279,14 @@
       <c r="C196" s="4" t="s">
         <v>1487</v>
       </c>
-      <c r="D196" s="9" t="s">
+      <c r="D196" s="4" t="s">
         <v>728</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="16.2">
+    <row r="197" spans="1:5" ht="19">
       <c r="A197" s="3" t="s">
         <v>1064</v>
       </c>
@@ -25314,14 +25296,14 @@
       <c r="C197" s="4" t="s">
         <v>1488</v>
       </c>
-      <c r="D197" s="9" t="s">
+      <c r="D197" s="4" t="s">
         <v>730</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="16.2">
+    <row r="198" spans="1:5" ht="19">
       <c r="A198" s="3" t="s">
         <v>1065</v>
       </c>
@@ -25331,14 +25313,14 @@
       <c r="C198" s="4" t="s">
         <v>1489</v>
       </c>
-      <c r="D198" s="9" t="s">
+      <c r="D198" s="4" t="s">
         <v>732</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="16.2">
+    <row r="199" spans="1:5" ht="19">
       <c r="A199" s="3" t="s">
         <v>1066</v>
       </c>
@@ -25348,14 +25330,14 @@
       <c r="C199" s="4" t="s">
         <v>1490</v>
       </c>
-      <c r="D199" s="9" t="s">
+      <c r="D199" s="4" t="s">
         <v>734</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="16.2">
+    <row r="200" spans="1:5" ht="19">
       <c r="A200" s="3" t="s">
         <v>1067</v>
       </c>
@@ -25365,14 +25347,14 @@
       <c r="C200" s="4" t="s">
         <v>1491</v>
       </c>
-      <c r="D200" s="9" t="s">
+      <c r="D200" s="4" t="s">
         <v>736</v>
       </c>
       <c r="E200" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="16.2">
+    <row r="201" spans="1:5" ht="19">
       <c r="A201" s="3" t="s">
         <v>1068</v>
       </c>
@@ -25382,14 +25364,14 @@
       <c r="C201" s="4" t="s">
         <v>1492</v>
       </c>
-      <c r="D201" s="9" t="s">
+      <c r="D201" s="4" t="s">
         <v>738</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="16.2">
+    <row r="202" spans="1:5" ht="19">
       <c r="A202" s="3" t="s">
         <v>1069</v>
       </c>
@@ -25399,14 +25381,14 @@
       <c r="C202" s="4" t="s">
         <v>1493</v>
       </c>
-      <c r="D202" s="9" t="s">
+      <c r="D202" s="4" t="s">
         <v>740</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="16.2">
+    <row r="203" spans="1:5" ht="19">
       <c r="A203" s="3" t="s">
         <v>1070</v>
       </c>
@@ -25416,14 +25398,14 @@
       <c r="C203" s="4" t="s">
         <v>1494</v>
       </c>
-      <c r="D203" s="9" t="s">
+      <c r="D203" s="4" t="s">
         <v>742</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="16.2">
+    <row r="204" spans="1:5" ht="19">
       <c r="A204" s="3" t="s">
         <v>1071</v>
       </c>
@@ -25433,14 +25415,14 @@
       <c r="C204" s="4" t="s">
         <v>1484</v>
       </c>
-      <c r="D204" s="9" t="s">
+      <c r="D204" s="4" t="s">
         <v>825</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="16.2">
+    <row r="205" spans="1:5" ht="19">
       <c r="A205" s="3" t="s">
         <v>1072</v>
       </c>
@@ -25450,14 +25432,14 @@
       <c r="C205" s="4" t="s">
         <v>1495</v>
       </c>
-      <c r="D205" s="9" t="s">
+      <c r="D205" s="4" t="s">
         <v>826</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="16.2">
+    <row r="206" spans="1:5" ht="19">
       <c r="A206" s="3" t="s">
         <v>1073</v>
       </c>
@@ -25467,14 +25449,14 @@
       <c r="C206" s="4" t="s">
         <v>1496</v>
       </c>
-      <c r="D206" s="9" t="s">
+      <c r="D206" s="4" t="s">
         <v>744</v>
       </c>
       <c r="E206" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="16.2">
+    <row r="207" spans="1:5" ht="19">
       <c r="A207" s="3" t="s">
         <v>1074</v>
       </c>
@@ -25484,14 +25466,14 @@
       <c r="C207" s="4" t="s">
         <v>1497</v>
       </c>
-      <c r="D207" s="9" t="s">
+      <c r="D207" s="4" t="s">
         <v>746</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="16.2">
+    <row r="208" spans="1:5" ht="19">
       <c r="A208" s="3" t="s">
         <v>1075</v>
       </c>
@@ -25501,14 +25483,14 @@
       <c r="C208" s="4" t="s">
         <v>1498</v>
       </c>
-      <c r="D208" s="9" t="s">
+      <c r="D208" s="4" t="s">
         <v>748</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="16.2">
+    <row r="209" spans="1:5" ht="19">
       <c r="A209" s="3" t="s">
         <v>1076</v>
       </c>
@@ -25518,14 +25500,14 @@
       <c r="C209" s="4" t="s">
         <v>1499</v>
       </c>
-      <c r="D209" s="9" t="s">
+      <c r="D209" s="4" t="s">
         <v>828</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="16.2">
+    <row r="210" spans="1:5" ht="38">
       <c r="A210" s="3" t="s">
         <v>1077</v>
       </c>
@@ -25535,14 +25517,14 @@
       <c r="C210" s="4" t="s">
         <v>1500</v>
       </c>
-      <c r="D210" s="9" t="s">
+      <c r="D210" s="4" t="s">
         <v>830</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="16.2">
+    <row r="211" spans="1:5" ht="19">
       <c r="A211" s="3" t="s">
         <v>1078</v>
       </c>
@@ -25552,14 +25534,14 @@
       <c r="C211" s="4" t="s">
         <v>1501</v>
       </c>
-      <c r="D211" s="9" t="s">
+      <c r="D211" s="4" t="s">
         <v>832</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="16.2">
+    <row r="212" spans="1:5" ht="19">
       <c r="A212" s="3" t="s">
         <v>1079</v>
       </c>
@@ -25569,14 +25551,14 @@
       <c r="C212" s="4" t="s">
         <v>1502</v>
       </c>
-      <c r="D212" s="9" t="s">
+      <c r="D212" s="4" t="s">
         <v>834</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="16.2">
+    <row r="213" spans="1:5" ht="19">
       <c r="A213" s="3" t="s">
         <v>1080</v>
       </c>
@@ -25586,14 +25568,14 @@
       <c r="C213" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="D213" s="9" t="s">
+      <c r="D213" s="4" t="s">
         <v>750</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="16.2">
+    <row r="214" spans="1:5" ht="19">
       <c r="A214" s="3" t="s">
         <v>1081</v>
       </c>
@@ -25603,14 +25585,14 @@
       <c r="C214" s="4" t="s">
         <v>1503</v>
       </c>
-      <c r="D214" s="9" t="s">
+      <c r="D214" s="4" t="s">
         <v>752</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="16.2">
+    <row r="215" spans="1:5" ht="19">
       <c r="A215" s="3" t="s">
         <v>1082</v>
       </c>
@@ -25620,14 +25602,14 @@
       <c r="C215" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D215" s="9" t="s">
+      <c r="D215" s="4" t="s">
         <v>499</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="16.2">
+    <row r="216" spans="1:5" ht="19">
       <c r="A216" s="3" t="s">
         <v>1083</v>
       </c>
@@ -25637,14 +25619,14 @@
       <c r="C216" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="D216" s="9" t="s">
+      <c r="D216" s="4" t="s">
         <v>547</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="16.2">
+    <row r="217" spans="1:5" ht="19">
       <c r="A217" s="3" t="s">
         <v>1084</v>
       </c>
@@ -25654,14 +25636,14 @@
       <c r="C217" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="D217" s="9" t="s">
+      <c r="D217" s="4" t="s">
         <v>545</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="16.2">
+    <row r="218" spans="1:5" ht="19">
       <c r="A218" s="3" t="s">
         <v>1085</v>
       </c>
@@ -25671,14 +25653,14 @@
       <c r="C218" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="D218" s="9" t="s">
+      <c r="D218" s="4" t="s">
         <v>757</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="16.2">
+    <row r="219" spans="1:5" ht="19">
       <c r="A219" s="3" t="s">
         <v>1086</v>
       </c>
@@ -25688,14 +25670,14 @@
       <c r="C219" s="4" t="s">
         <v>1504</v>
       </c>
-      <c r="D219" s="9" t="s">
+      <c r="D219" s="4" t="s">
         <v>758</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="16.2">
+    <row r="220" spans="1:5" ht="19">
       <c r="A220" s="3" t="s">
         <v>1087</v>
       </c>
@@ -25705,14 +25687,14 @@
       <c r="C220" s="4" t="s">
         <v>1505</v>
       </c>
-      <c r="D220" s="9" t="s">
+      <c r="D220" s="4" t="s">
         <v>534</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="16.2">
+    <row r="221" spans="1:5" ht="19">
       <c r="A221" s="3" t="s">
         <v>1088</v>
       </c>
@@ -25722,14 +25704,14 @@
       <c r="C221" s="4" t="s">
         <v>1400</v>
       </c>
-      <c r="D221" s="9" t="s">
+      <c r="D221" s="4" t="s">
         <v>536</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="16.2">
+    <row r="222" spans="1:5" ht="19">
       <c r="A222" s="3" t="s">
         <v>1089</v>
       </c>
@@ -25739,14 +25721,14 @@
       <c r="C222" s="4" t="s">
         <v>1506</v>
       </c>
-      <c r="D222" s="9" t="s">
+      <c r="D222" s="4" t="s">
         <v>538</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="16.2">
+    <row r="223" spans="1:5" ht="19">
       <c r="A223" s="3" t="s">
         <v>1090</v>
       </c>
@@ -25756,14 +25738,14 @@
       <c r="C223" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="D223" s="9" t="s">
+      <c r="D223" s="4" t="s">
         <v>540</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="16.2">
+    <row r="224" spans="1:5" ht="19">
       <c r="A224" s="3" t="s">
         <v>1091</v>
       </c>
@@ -25773,14 +25755,14 @@
       <c r="C224" s="4" t="s">
         <v>1403</v>
       </c>
-      <c r="D224" s="9" t="s">
+      <c r="D224" s="4" t="s">
         <v>759</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="16.2">
+    <row r="225" spans="1:5" ht="19">
       <c r="A225" s="3" t="s">
         <v>1092</v>
       </c>
@@ -25790,14 +25772,14 @@
       <c r="C225" s="4" t="s">
         <v>1507</v>
       </c>
-      <c r="D225" s="9" t="s">
+      <c r="D225" s="4" t="s">
         <v>760</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="16.2">
+    <row r="226" spans="1:5" ht="19">
       <c r="A226" s="3" t="s">
         <v>1093</v>
       </c>
@@ -25807,14 +25789,14 @@
       <c r="C226" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="D226" s="9" t="s">
+      <c r="D226" s="4" t="s">
         <v>761</v>
       </c>
       <c r="E226" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="16.2">
+    <row r="227" spans="1:5" ht="19">
       <c r="A227" s="3" t="s">
         <v>1094</v>
       </c>
@@ -25824,14 +25806,14 @@
       <c r="C227" s="4" t="s">
         <v>1508</v>
       </c>
-      <c r="D227" s="9" t="s">
+      <c r="D227" s="4" t="s">
         <v>549</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="16.2">
+    <row r="228" spans="1:5" ht="19">
       <c r="A228" s="3" t="s">
         <v>1095</v>
       </c>
@@ -25841,14 +25823,14 @@
       <c r="C228" s="4" t="s">
         <v>1509</v>
       </c>
-      <c r="D228" s="9" t="s">
+      <c r="D228" s="4" t="s">
         <v>488</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="16.2">
+    <row r="229" spans="1:5" ht="19">
       <c r="A229" s="3" t="s">
         <v>1096</v>
       </c>
@@ -25858,14 +25840,14 @@
       <c r="C229" s="4" t="s">
         <v>1510</v>
       </c>
-      <c r="D229" s="9" t="s">
+      <c r="D229" s="4" t="s">
         <v>844</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="16.2">
+    <row r="230" spans="1:5" ht="19">
       <c r="A230" s="3" t="s">
         <v>1097</v>
       </c>
@@ -25875,14 +25857,14 @@
       <c r="C230" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="D230" s="9" t="s">
+      <c r="D230" s="4" t="s">
         <v>763</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="16.2">
+    <row r="231" spans="1:5" ht="19">
       <c r="A231" s="3" t="s">
         <v>1098</v>
       </c>
@@ -25892,14 +25874,14 @@
       <c r="C231" s="4" t="s">
         <v>1511</v>
       </c>
-      <c r="D231" s="9" t="s">
+      <c r="D231" s="4" t="s">
         <v>765</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="16.2">
+    <row r="232" spans="1:5" ht="19">
       <c r="A232" s="3" t="s">
         <v>1099</v>
       </c>
@@ -25909,14 +25891,14 @@
       <c r="C232" s="4" t="s">
         <v>1512</v>
       </c>
-      <c r="D232" s="9" t="s">
+      <c r="D232" s="4" t="s">
         <v>767</v>
       </c>
       <c r="E232" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="16.2">
+    <row r="233" spans="1:5" ht="19">
       <c r="A233" s="3" t="s">
         <v>1100</v>
       </c>
@@ -25926,14 +25908,14 @@
       <c r="C233" s="4" t="s">
         <v>1513</v>
       </c>
-      <c r="D233" s="9" t="s">
+      <c r="D233" s="4" t="s">
         <v>523</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="16.2">
+    <row r="234" spans="1:5" ht="19">
       <c r="A234" s="3" t="s">
         <v>1101</v>
       </c>
@@ -25943,14 +25925,14 @@
       <c r="C234" s="4" t="s">
         <v>1514</v>
       </c>
-      <c r="D234" s="9" t="s">
+      <c r="D234" s="4" t="s">
         <v>770</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="32.4">
+    <row r="235" spans="1:5" ht="38">
       <c r="A235" s="3" t="s">
         <v>1102</v>
       </c>
@@ -25960,14 +25942,14 @@
       <c r="C235" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D235" s="9" t="s">
+      <c r="D235" s="4" t="s">
         <v>772</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="16.2">
+    <row r="236" spans="1:5" ht="19">
       <c r="A236" s="3" t="s">
         <v>1103</v>
       </c>
@@ -25977,14 +25959,14 @@
       <c r="C236" s="4" t="s">
         <v>1516</v>
       </c>
-      <c r="D236" s="9" t="s">
+      <c r="D236" s="4" t="s">
         <v>774</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="16.2">
+    <row r="237" spans="1:5" ht="19">
       <c r="A237" s="3" t="s">
         <v>1104</v>
       </c>
@@ -25994,14 +25976,14 @@
       <c r="C237" s="4" t="s">
         <v>1517</v>
       </c>
-      <c r="D237" s="9" t="s">
+      <c r="D237" s="4" t="s">
         <v>776</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="16.2">
+    <row r="238" spans="1:5" ht="19">
       <c r="A238" s="3" t="s">
         <v>1105</v>
       </c>
@@ -26011,14 +25993,14 @@
       <c r="C238" s="4" t="s">
         <v>1518</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="D238" s="4" t="s">
         <v>778</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="16.2">
+    <row r="239" spans="1:5" ht="19">
       <c r="A239" s="3" t="s">
         <v>1106</v>
       </c>
@@ -26028,14 +26010,14 @@
       <c r="C239" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="D239" s="9" t="s">
+      <c r="D239" s="4" t="s">
         <v>780</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="16.2">
+    <row r="240" spans="1:5" ht="19">
       <c r="A240" s="3" t="s">
         <v>1107</v>
       </c>
@@ -26045,14 +26027,14 @@
       <c r="C240" s="4" t="s">
         <v>1519</v>
       </c>
-      <c r="D240" s="9" t="s">
+      <c r="D240" s="4" t="s">
         <v>782</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="16.2">
+    <row r="241" spans="1:5" ht="19">
       <c r="A241" s="3" t="s">
         <v>1108</v>
       </c>
@@ -26062,14 +26044,14 @@
       <c r="C241" s="4" t="s">
         <v>1520</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="D241" s="4" t="s">
         <v>784</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="16.2">
+    <row r="242" spans="1:5" ht="19">
       <c r="A242" s="3" t="s">
         <v>1109</v>
       </c>
@@ -26079,14 +26061,14 @@
       <c r="C242" s="4" t="s">
         <v>1521</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="D242" s="4" t="s">
         <v>786</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="16.2">
+    <row r="243" spans="1:5" ht="38">
       <c r="A243" s="3" t="s">
         <v>1110</v>
       </c>
@@ -26096,14 +26078,14 @@
       <c r="C243" s="4" t="s">
         <v>1522</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="D243" s="4" t="s">
         <v>788</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="16.2">
+    <row r="244" spans="1:5" ht="38">
       <c r="A244" s="3" t="s">
         <v>1111</v>
       </c>
@@ -26113,14 +26095,14 @@
       <c r="C244" s="4" t="s">
         <v>1523</v>
       </c>
-      <c r="D244" s="9" t="s">
+      <c r="D244" s="4" t="s">
         <v>790</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="16.2">
+    <row r="245" spans="1:5" ht="19">
       <c r="A245" s="3" t="s">
         <v>1112</v>
       </c>
@@ -26130,14 +26112,14 @@
       <c r="C245" s="4" t="s">
         <v>1524</v>
       </c>
-      <c r="D245" s="9" t="s">
+      <c r="D245" s="4" t="s">
         <v>792</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="16.2">
+    <row r="246" spans="1:5" ht="19">
       <c r="A246" s="3" t="s">
         <v>1113</v>
       </c>
@@ -26147,14 +26129,14 @@
       <c r="C246" s="4" t="s">
         <v>1525</v>
       </c>
-      <c r="D246" s="9" t="s">
+      <c r="D246" s="4" t="s">
         <v>794</v>
       </c>
       <c r="E246" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="16.2">
+    <row r="247" spans="1:5" ht="19">
       <c r="A247" s="3" t="s">
         <v>1114</v>
       </c>
@@ -26164,14 +26146,14 @@
       <c r="C247" s="4" t="s">
         <v>1526</v>
       </c>
-      <c r="D247" s="9" t="s">
+      <c r="D247" s="4" t="s">
         <v>796</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="16.2">
+    <row r="248" spans="1:5" ht="19">
       <c r="A248" s="3" t="s">
         <v>1115</v>
       </c>
@@ -26181,14 +26163,14 @@
       <c r="C248" s="4" t="s">
         <v>1527</v>
       </c>
-      <c r="D248" s="9" t="s">
+      <c r="D248" s="4" t="s">
         <v>798</v>
       </c>
       <c r="E248" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="16.2">
+    <row r="249" spans="1:5" ht="19">
       <c r="A249" s="3" t="s">
         <v>1116</v>
       </c>
@@ -26198,14 +26180,14 @@
       <c r="C249" s="4" t="s">
         <v>1528</v>
       </c>
-      <c r="D249" s="9" t="s">
+      <c r="D249" s="4" t="s">
         <v>800</v>
       </c>
       <c r="E249" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="32.4">
+    <row r="250" spans="1:5" ht="38">
       <c r="A250" s="3" t="s">
         <v>1117</v>
       </c>
@@ -26215,14 +26197,14 @@
       <c r="C250" s="4" t="s">
         <v>1529</v>
       </c>
-      <c r="D250" s="9" t="s">
+      <c r="D250" s="4" t="s">
         <v>802</v>
       </c>
       <c r="E250" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="16.2">
+    <row r="251" spans="1:5" ht="19">
       <c r="A251" s="3" t="s">
         <v>1118</v>
       </c>
@@ -26232,14 +26214,14 @@
       <c r="C251" s="4" t="s">
         <v>1530</v>
       </c>
-      <c r="D251" s="9" t="s">
+      <c r="D251" s="4" t="s">
         <v>804</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="16.2">
+    <row r="252" spans="1:5" ht="38">
       <c r="A252" s="3" t="s">
         <v>1119</v>
       </c>
@@ -26249,14 +26231,14 @@
       <c r="C252" s="4" t="s">
         <v>1531</v>
       </c>
-      <c r="D252" s="9" t="s">
+      <c r="D252" s="4" t="s">
         <v>806</v>
       </c>
       <c r="E252" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="16.2">
+    <row r="253" spans="1:5" ht="19">
       <c r="A253" s="3" t="s">
         <v>1120</v>
       </c>
@@ -26266,14 +26248,14 @@
       <c r="C253" s="4" t="s">
         <v>914</v>
       </c>
-      <c r="D253" s="9" t="s">
+      <c r="D253" s="4" t="s">
         <v>808</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="16.2">
+    <row r="254" spans="1:5" ht="19">
       <c r="A254" s="3" t="s">
         <v>1121</v>
       </c>
@@ -26283,14 +26265,14 @@
       <c r="C254" s="4" t="s">
         <v>1532</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="D254" s="4" t="s">
         <v>810</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="16.2">
+    <row r="255" spans="1:5" ht="19">
       <c r="A255" s="3" t="s">
         <v>1122</v>
       </c>
@@ -26300,14 +26282,14 @@
       <c r="C255" s="4" t="s">
         <v>1533</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="D255" s="4" t="s">
         <v>812</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="32.4">
+    <row r="256" spans="1:5" ht="38">
       <c r="A256" s="3" t="s">
         <v>1123</v>
       </c>
@@ -26317,14 +26299,14 @@
       <c r="C256" s="4" t="s">
         <v>1534</v>
       </c>
-      <c r="D256" s="9" t="s">
+      <c r="D256" s="4" t="s">
         <v>814</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="16.2">
+    <row r="257" spans="1:5" ht="19">
       <c r="A257" s="3" t="s">
         <v>1124</v>
       </c>
@@ -26334,14 +26316,14 @@
       <c r="C257" s="4" t="s">
         <v>1535</v>
       </c>
-      <c r="D257" s="9" t="s">
+      <c r="D257" s="4" t="s">
         <v>816</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="16.2">
+    <row r="258" spans="1:5" ht="19">
       <c r="A258" s="3" t="s">
         <v>1125</v>
       </c>
@@ -26351,14 +26333,14 @@
       <c r="C258" s="4" t="s">
         <v>1536</v>
       </c>
-      <c r="D258" s="9" t="s">
+      <c r="D258" s="4" t="s">
         <v>847</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="16.2">
+    <row r="259" spans="1:5" ht="38">
       <c r="A259" s="3" t="s">
         <v>1126</v>
       </c>
@@ -26368,14 +26350,14 @@
       <c r="C259" s="4" t="s">
         <v>1537</v>
       </c>
-      <c r="D259" s="9" t="s">
+      <c r="D259" s="4" t="s">
         <v>848</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="16.2">
+    <row r="260" spans="1:5" ht="19">
       <c r="A260" s="3" t="s">
         <v>1127</v>
       </c>
@@ -26385,14 +26367,14 @@
       <c r="C260" s="4" t="s">
         <v>1538</v>
       </c>
-      <c r="D260" s="9" t="s">
+      <c r="D260" s="4" t="s">
         <v>849</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="16.2">
+    <row r="261" spans="1:5" ht="19">
       <c r="A261" s="3" t="s">
         <v>1128</v>
       </c>
@@ -26402,14 +26384,14 @@
       <c r="C261" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="D261" s="9" t="s">
+      <c r="D261" s="4" t="s">
         <v>420</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="16.2">
+    <row r="262" spans="1:5" ht="19">
       <c r="A262" s="3" t="s">
         <v>1129</v>
       </c>
@@ -26419,14 +26401,14 @@
       <c r="C262" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="D262" s="9" t="s">
+      <c r="D262" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E262" s="3" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="16.2">
+    <row r="263" spans="1:5" ht="19">
       <c r="A263" s="3" t="s">
         <v>1130</v>
       </c>
@@ -26436,14 +26418,14 @@
       <c r="C263" s="4" t="s">
         <v>1539</v>
       </c>
-      <c r="D263" s="9" t="s">
+      <c r="D263" s="4" t="s">
         <v>850</v>
       </c>
       <c r="E263" s="3" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="16.2">
+    <row r="264" spans="1:5" ht="19">
       <c r="A264" s="3" t="s">
         <v>1131</v>
       </c>
@@ -26453,14 +26435,14 @@
       <c r="C264" s="4" t="s">
         <v>1540</v>
       </c>
-      <c r="D264" s="9" t="s">
+      <c r="D264" s="4" t="s">
         <v>851</v>
       </c>
       <c r="E264" s="3" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="16.2">
+    <row r="265" spans="1:5" ht="19">
       <c r="A265" s="3" t="s">
         <v>1132</v>
       </c>
@@ -26470,14 +26452,14 @@
       <c r="C265" s="4" t="s">
         <v>1541</v>
       </c>
-      <c r="D265" s="9" t="s">
+      <c r="D265" s="4" t="s">
         <v>860</v>
       </c>
       <c r="E265" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="16.2">
+    <row r="266" spans="1:5" ht="19">
       <c r="A266" s="3" t="s">
         <v>1133</v>
       </c>
@@ -26487,14 +26469,14 @@
       <c r="C266" s="4" t="s">
         <v>1542</v>
       </c>
-      <c r="D266" s="9" t="s">
+      <c r="D266" s="4" t="s">
         <v>862</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="16.2">
+    <row r="267" spans="1:5" ht="19">
       <c r="A267" s="3" t="s">
         <v>1134</v>
       </c>
@@ -26504,14 +26486,14 @@
       <c r="C267" s="4" t="s">
         <v>1543</v>
       </c>
-      <c r="D267" s="9" t="s">
+      <c r="D267" s="4" t="s">
         <v>864</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="16.2">
+    <row r="268" spans="1:5" ht="19">
       <c r="A268" s="3" t="s">
         <v>1135</v>
       </c>
@@ -26521,14 +26503,14 @@
       <c r="C268" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="D268" s="9" t="s">
+      <c r="D268" s="4" t="s">
         <v>866</v>
       </c>
       <c r="E268" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="16.2">
+    <row r="269" spans="1:5" ht="19">
       <c r="A269" s="3" t="s">
         <v>1136</v>
       </c>
@@ -26538,14 +26520,14 @@
       <c r="C269" s="4" t="s">
         <v>1544</v>
       </c>
-      <c r="D269" s="9" t="s">
+      <c r="D269" s="4" t="s">
         <v>868</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="16.2">
+    <row r="270" spans="1:5" ht="19">
       <c r="A270" s="3" t="s">
         <v>1137</v>
       </c>
@@ -26555,14 +26537,14 @@
       <c r="C270" s="4" t="s">
         <v>1545</v>
       </c>
-      <c r="D270" s="9" t="s">
+      <c r="D270" s="4" t="s">
         <v>870</v>
       </c>
       <c r="E270" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="16.2">
+    <row r="271" spans="1:5" ht="19">
       <c r="A271" s="3" t="s">
         <v>1138</v>
       </c>
@@ -26572,14 +26554,14 @@
       <c r="C271" s="4" t="s">
         <v>1546</v>
       </c>
-      <c r="D271" s="9" t="s">
+      <c r="D271" s="4" t="s">
         <v>872</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="16.2">
+    <row r="272" spans="1:5" ht="19">
       <c r="A272" s="3" t="s">
         <v>1139</v>
       </c>
@@ -26589,14 +26571,14 @@
       <c r="C272" s="4" t="s">
         <v>1547</v>
       </c>
-      <c r="D272" s="9" t="s">
+      <c r="D272" s="4" t="s">
         <v>874</v>
       </c>
       <c r="E272" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="16.2">
+    <row r="273" spans="1:5" ht="19">
       <c r="A273" s="3" t="s">
         <v>1140</v>
       </c>
@@ -26606,14 +26588,14 @@
       <c r="C273" s="4" t="s">
         <v>1548</v>
       </c>
-      <c r="D273" s="9" t="s">
+      <c r="D273" s="4" t="s">
         <v>876</v>
       </c>
       <c r="E273" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="16.2">
+    <row r="274" spans="1:5" ht="19">
       <c r="A274" s="3" t="s">
         <v>1141</v>
       </c>
@@ -26623,14 +26605,14 @@
       <c r="C274" s="4" t="s">
         <v>1298</v>
       </c>
-      <c r="D274" s="9" t="s">
-        <v>1555</v>
+      <c r="D274" s="8" t="s">
+        <v>1570</v>
       </c>
       <c r="E274" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="32.4">
+    <row r="275" spans="1:5" ht="38">
       <c r="A275" s="3" t="s">
         <v>1142</v>
       </c>
@@ -26640,14 +26622,14 @@
       <c r="C275" s="4" t="s">
         <v>1549</v>
       </c>
-      <c r="D275" s="9" t="s">
+      <c r="D275" s="4" t="s">
         <v>879</v>
       </c>
       <c r="E275" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="32.4">
+    <row r="276" spans="1:5" ht="38">
       <c r="A276" s="3" t="s">
         <v>1143</v>
       </c>
@@ -26657,14 +26639,14 @@
       <c r="C276" s="4" t="s">
         <v>1550</v>
       </c>
-      <c r="D276" s="9" t="s">
+      <c r="D276" s="4" t="s">
         <v>881</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="32.4">
+    <row r="277" spans="1:5" ht="38">
       <c r="A277" s="3" t="s">
         <v>1144</v>
       </c>
@@ -26674,14 +26656,14 @@
       <c r="C277" s="4" t="s">
         <v>1551</v>
       </c>
-      <c r="D277" s="9" t="s">
+      <c r="D277" s="4" t="s">
         <v>879</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="16.2">
+    <row r="278" spans="1:5" ht="19">
       <c r="A278" s="3" t="s">
         <v>1145</v>
       </c>
@@ -26691,14 +26673,14 @@
       <c r="C278" s="4" t="s">
         <v>1552</v>
       </c>
-      <c r="D278" s="9" t="s">
+      <c r="D278" s="4" t="s">
         <v>884</v>
       </c>
       <c r="E278" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="16.2">
+    <row r="279" spans="1:5" ht="19">
       <c r="A279" s="3" t="s">
         <v>1146</v>
       </c>
@@ -26708,14 +26690,14 @@
       <c r="C279" s="4" t="s">
         <v>1553</v>
       </c>
-      <c r="D279" s="9" t="s">
+      <c r="D279" s="4" t="s">
         <v>886</v>
       </c>
       <c r="E279" s="3" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="16.2">
+    <row r="280" spans="1:5" ht="19">
       <c r="A280" s="3" t="s">
         <v>1147</v>
       </c>
@@ -26725,7 +26707,7 @@
       <c r="C280" s="4" t="s">
         <v>1554</v>
       </c>
-      <c r="D280" s="9" t="s">
+      <c r="D280" s="4" t="s">
         <v>888</v>
       </c>
       <c r="E280" s="3" t="s">
